--- a/teaching/traditional_assets/database/data/jersey/jersey_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_healthcare_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nasdaq_gs_nvcr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,23 +592,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.789</v>
+      </c>
       <c r="G2">
-        <v>0.1382846488502175</v>
+        <v>0.2622108540925267</v>
       </c>
       <c r="H2">
-        <v>-0.08017402113113735</v>
+        <v>0.01376779359430605</v>
       </c>
       <c r="I2">
-        <v>-0.02488808049796216</v>
+        <v>0.04388894519920492</v>
       </c>
       <c r="J2">
-        <v>-0.02488808049796216</v>
+        <v>0.04388894519920492</v>
       </c>
       <c r="K2">
-        <v>-27.1</v>
+        <v>19.2</v>
       </c>
       <c r="L2">
-        <v>-0.08421379738968303</v>
+        <v>0.04270462633451957</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +629,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>208</v>
+        <v>234.5</v>
       </c>
       <c r="V2">
-        <v>0.0246500989559261</v>
+        <v>0.01331251774056202</v>
       </c>
       <c r="W2">
-        <v>-0.2358572671888599</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="X2">
-        <v>0.08738914756532955</v>
+        <v>0.053172814757422</v>
       </c>
       <c r="Y2">
-        <v>-0.3232464147541894</v>
+        <v>0.04766752137703177</v>
       </c>
       <c r="Z2">
-        <v>2.099221531976531</v>
+        <v>2.950370298922556</v>
       </c>
       <c r="AA2">
-        <v>-0.05224559447088737</v>
+        <v>0.1294886403667739</v>
       </c>
       <c r="AB2">
-        <v>0.08641618813862489</v>
+        <v>0.05314085994119924</v>
       </c>
       <c r="AC2">
-        <v>-0.1386617826095123</v>
+        <v>0.07634778042557466</v>
       </c>
       <c r="AD2">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.19492152122112</v>
+        <v>20.58765119218734</v>
       </c>
       <c r="AF2">
-        <v>177.1949215212211</v>
+        <v>20.58765119218734</v>
       </c>
       <c r="AG2">
-        <v>-30.80507847877888</v>
+        <v>-213.9123488078127</v>
       </c>
       <c r="AH2">
-        <v>0.02056748180246085</v>
+        <v>0.001167392411264253</v>
       </c>
       <c r="AI2">
-        <v>0.4820385460928946</v>
+        <v>0.06284623708269482</v>
       </c>
       <c r="AJ2">
-        <v>-0.003664089194721028</v>
+        <v>-0.012293044727762</v>
       </c>
       <c r="AK2">
-        <v>-0.1930204181007274</v>
+        <v>-2.297966981314981</v>
       </c>
       <c r="AL2">
+        <v>16.7</v>
+      </c>
+      <c r="AM2">
         <v>12.3</v>
       </c>
-      <c r="AM2">
-        <v>9.65</v>
-      </c>
       <c r="AN2">
-        <v>144.7368421052632</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-0.7626016260162601</v>
+        <v>1.125748502994012</v>
       </c>
       <c r="AP2">
-        <v>-27.02199866559551</v>
+        <v>-6.823360408542668</v>
       </c>
       <c r="AQ2">
-        <v>-0.9720207253886011</v>
+        <v>1.528455284552846</v>
       </c>
     </row>
     <row r="3">
@@ -715,23 +720,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.789</v>
+      </c>
       <c r="G3">
-        <v>0.1382846488502175</v>
+        <v>0.2622108540925267</v>
       </c>
       <c r="H3">
-        <v>-0.08017402113113735</v>
+        <v>0.01376779359430605</v>
       </c>
       <c r="I3">
-        <v>-0.02488808049796216</v>
+        <v>0.04388894519920492</v>
       </c>
       <c r="J3">
-        <v>-0.02488808049796216</v>
+        <v>0.04388894519920492</v>
       </c>
       <c r="K3">
-        <v>-27.1</v>
+        <v>19.2</v>
       </c>
       <c r="L3">
-        <v>-0.08421379738968303</v>
+        <v>0.04270462633451957</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +748,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +757,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>208</v>
+        <v>234.5</v>
       </c>
       <c r="V3">
-        <v>0.0246500989559261</v>
+        <v>0.01331251774056202</v>
       </c>
       <c r="W3">
-        <v>-0.2358572671888599</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="X3">
-        <v>0.08738914756532955</v>
+        <v>0.053172814757422</v>
       </c>
       <c r="Y3">
-        <v>-0.3232464147541894</v>
+        <v>0.04766752137703177</v>
       </c>
       <c r="Z3">
-        <v>2.099221531976531</v>
+        <v>2.950370298922556</v>
       </c>
       <c r="AA3">
-        <v>-0.05224559447088737</v>
+        <v>0.1294886403667739</v>
       </c>
       <c r="AB3">
-        <v>0.08641618813862489</v>
+        <v>0.05314085994119924</v>
       </c>
       <c r="AC3">
-        <v>-0.1386617826095123</v>
+        <v>0.07634778042557466</v>
       </c>
       <c r="AD3">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.19492152122112</v>
+        <v>20.58765119218734</v>
       </c>
       <c r="AF3">
-        <v>177.1949215212211</v>
+        <v>20.58765119218734</v>
       </c>
       <c r="AG3">
-        <v>-30.80507847877888</v>
+        <v>-213.9123488078127</v>
       </c>
       <c r="AH3">
-        <v>0.02056748180246085</v>
+        <v>0.001167392411264253</v>
       </c>
       <c r="AI3">
-        <v>0.4820385460928946</v>
+        <v>0.06284623708269482</v>
       </c>
       <c r="AJ3">
-        <v>-0.003664089194721028</v>
+        <v>-0.012293044727762</v>
       </c>
       <c r="AK3">
-        <v>-0.1930204181007274</v>
+        <v>-2.297966981314981</v>
       </c>
       <c r="AL3">
+        <v>16.7</v>
+      </c>
+      <c r="AM3">
         <v>12.3</v>
       </c>
-      <c r="AM3">
-        <v>9.65</v>
-      </c>
       <c r="AN3">
-        <v>144.7368421052632</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-0.7626016260162601</v>
+        <v>1.125748502994012</v>
       </c>
       <c r="AP3">
-        <v>-27.02199866559551</v>
+        <v>-6.823360408542668</v>
       </c>
       <c r="AQ3">
-        <v>-0.9720207253886011</v>
+        <v>1.528455284552846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NovoCure Limited (NasdaqGS:NVCR)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NasdaqGS:NVCR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00116739241126425</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>17615</v>
+      </c>
+      <c r="H2">
+        <v>17643.2363752721</v>
+      </c>
+      <c r="I2">
+        <v>17401.0876511922</v>
+      </c>
+      <c r="J2">
+        <v>17408.7363752721</v>
+      </c>
+      <c r="K2">
+        <v>20.5876511921873</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0531408599411992</v>
+      </c>
+      <c r="N2">
+        <v>0.0531215979664134</v>
+      </c>
+      <c r="O2">
+        <v>0.0258</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.053172814757422</v>
+      </c>
+      <c r="T2">
+        <v>0.0531215979664134</v>
+      </c>
+      <c r="U2">
+        <v>0.929508787233517</v>
+      </c>
+      <c r="V2">
+        <v>0.9284236857290969</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>17615</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>31.35</v>
+      </c>
+      <c r="AH2">
+        <v>7.5</v>
+      </c>
+      <c r="AI2">
+        <v>19.8</v>
+      </c>
+      <c r="AJ2">
+        <v>20.58765119218734</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>16.7</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>234.5</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="C2">
+        <v>17643.23637527206</v>
+      </c>
+      <c r="D2">
+        <v>17408.73637527206</v>
+      </c>
+      <c r="E2">
+        <v>-20.58765119218734</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>234.5</v>
+      </c>
+      <c r="H2">
+        <v>17615</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>31.35</v>
+      </c>
+      <c r="K2">
+        <v>7.5</v>
+      </c>
+      <c r="L2">
+        <v>23.85</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>23.85</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>23.85</v>
+      </c>
+      <c r="Q2">
+        <v>31.35</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="T2">
+        <v>0.9284236857290969</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05320659796641337</v>
+      </c>
+      <c r="C3">
+        <v>17433.17844347837</v>
+      </c>
+      <c r="D3">
+        <v>17375.0343199903</v>
+      </c>
+      <c r="E3">
+        <v>155.7682253197345</v>
+      </c>
+      <c r="F3">
+        <v>176.3558765119219</v>
+      </c>
+      <c r="G3">
+        <v>234.5</v>
+      </c>
+      <c r="H3">
+        <v>17615</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>31.35</v>
+      </c>
+      <c r="K3">
+        <v>7.5</v>
+      </c>
+      <c r="L3">
+        <v>23.85</v>
+      </c>
+      <c r="M3">
+        <v>3.139134601912209</v>
+      </c>
+      <c r="N3">
+        <v>20.71086539808779</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>20.71086539808779</v>
+      </c>
+      <c r="Q3">
+        <v>28.21086539808779</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05356424037011452</v>
+      </c>
+      <c r="T3">
+        <v>0.9378017027566636</v>
+      </c>
+      <c r="U3">
+        <v>0.0178</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0178</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>7.597635343661826</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05346359796641337</v>
+      </c>
+      <c r="C4">
+        <v>17155.71251194708</v>
+      </c>
+      <c r="D4">
+        <v>17273.92426497092</v>
+      </c>
+      <c r="E4">
+        <v>332.1241018316564</v>
+      </c>
+      <c r="F4">
+        <v>352.7117530238438</v>
+      </c>
+      <c r="G4">
+        <v>234.5</v>
+      </c>
+      <c r="H4">
+        <v>17615</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>31.35</v>
+      </c>
+      <c r="K4">
+        <v>7.5</v>
+      </c>
+      <c r="L4">
+        <v>23.85</v>
+      </c>
+      <c r="M4">
+        <v>9.311590279829476</v>
+      </c>
+      <c r="N4">
+        <v>14.53840972017053</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.53840972017053</v>
+      </c>
+      <c r="Q4">
+        <v>22.03840972017053</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05401591629225855</v>
+      </c>
+      <c r="T4">
+        <v>0.9473711078868337</v>
+      </c>
+      <c r="U4">
+        <v>0.0264</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0264</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>2.561324036310237</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05704859796641337</v>
+      </c>
+      <c r="C5">
+        <v>15682.41764398078</v>
+      </c>
+      <c r="D5">
+        <v>15976.98527351654</v>
+      </c>
+      <c r="E5">
+        <v>508.4799783435783</v>
+      </c>
+      <c r="F5">
+        <v>529.0676295357656</v>
+      </c>
+      <c r="G5">
+        <v>234.5</v>
+      </c>
+      <c r="H5">
+        <v>17615</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>31.35</v>
+      </c>
+      <c r="K5">
+        <v>7.5</v>
+      </c>
+      <c r="L5">
+        <v>23.85</v>
+      </c>
+      <c r="M5">
+        <v>74.17528166091434</v>
+      </c>
+      <c r="N5">
+        <v>-50.32528166091434</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-50.32528166091434</v>
+      </c>
+      <c r="Q5">
+        <v>-42.82528166091434</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05447690512001378</v>
+      </c>
+      <c r="T5">
+        <v>0.9571378203392751</v>
+      </c>
+      <c r="U5">
+        <v>0.1402</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.1402</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>0.3215356850146945</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05835759796641338</v>
+      </c>
+      <c r="C6">
+        <v>15079.74913517586</v>
+      </c>
+      <c r="D6">
+        <v>15550.67264122355</v>
+      </c>
+      <c r="E6">
+        <v>684.8358548555002</v>
+      </c>
+      <c r="F6">
+        <v>705.4235060476875</v>
+      </c>
+      <c r="G6">
+        <v>234.5</v>
+      </c>
+      <c r="H6">
+        <v>17615</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>31.35</v>
+      </c>
+      <c r="K6">
+        <v>7.5</v>
+      </c>
+      <c r="L6">
+        <v>23.85</v>
+      </c>
+      <c r="M6">
+        <v>98.90037554788579</v>
+      </c>
+      <c r="N6">
+        <v>-75.05037554788578</v>
+      </c>
+      <c r="O6">
+        <v>-0</v>
+      </c>
+      <c r="P6">
+        <v>-75.05037554788578</v>
+      </c>
+      <c r="Q6">
+        <v>-67.55037554788578</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0549474978816806</v>
+      </c>
+      <c r="T6">
+        <v>0.9671080059678094</v>
+      </c>
+      <c r="U6">
+        <v>0.1402</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.1402</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.241151763761021</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06184159796641336</v>
+      </c>
+      <c r="C7">
+        <v>13872.23802968412</v>
+      </c>
+      <c r="D7">
+        <v>14519.51741224373</v>
+      </c>
+      <c r="E7">
+        <v>861.1917313674222</v>
+      </c>
+      <c r="F7">
+        <v>881.7793825596095</v>
+      </c>
+      <c r="G7">
+        <v>234.5</v>
+      </c>
+      <c r="H7">
+        <v>17615</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>31.35</v>
+      </c>
+      <c r="K7">
+        <v>7.5</v>
+      </c>
+      <c r="L7">
+        <v>23.85</v>
+      </c>
+      <c r="M7">
+        <v>161.9828725762003</v>
+      </c>
+      <c r="N7">
+        <v>-138.1328725762003</v>
+      </c>
+      <c r="O7">
+        <v>-0</v>
+      </c>
+      <c r="P7">
+        <v>-138.1328725762003</v>
+      </c>
+      <c r="Q7">
+        <v>-130.6328725762003</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05542799785938249</v>
+      </c>
+      <c r="T7">
+        <v>0.9772880902411546</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.1837</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.1472377889136424</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06358559796641337</v>
+      </c>
+      <c r="C8">
+        <v>13229.42255218152</v>
+      </c>
+      <c r="D8">
+        <v>14053.05781125305</v>
+      </c>
+      <c r="E8">
+        <v>1037.547607879344</v>
+      </c>
+      <c r="F8">
+        <v>1058.135259071531</v>
+      </c>
+      <c r="G8">
+        <v>234.5</v>
+      </c>
+      <c r="H8">
+        <v>17615</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>31.35</v>
+      </c>
+      <c r="K8">
+        <v>7.5</v>
+      </c>
+      <c r="L8">
+        <v>23.85</v>
+      </c>
+      <c r="M8">
+        <v>194.3794470914403</v>
+      </c>
+      <c r="N8">
+        <v>-170.5294470914403</v>
+      </c>
+      <c r="O8">
+        <v>-0</v>
+      </c>
+      <c r="P8">
+        <v>-170.5294470914403</v>
+      </c>
+      <c r="Q8">
+        <v>-163.0294470914403</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05591872124086529</v>
+      </c>
+      <c r="T8">
+        <v>0.9876847720522308</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.1837</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.1226981574280352</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06532959796641337</v>
+      </c>
+      <c r="C9">
+        <v>12615.64549628658</v>
+      </c>
+      <c r="D9">
+        <v>13615.63663187003</v>
+      </c>
+      <c r="E9">
+        <v>1213.903484391266</v>
+      </c>
+      <c r="F9">
+        <v>1234.491135583453</v>
+      </c>
+      <c r="G9">
+        <v>234.5</v>
+      </c>
+      <c r="H9">
+        <v>17615</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>31.35</v>
+      </c>
+      <c r="K9">
+        <v>7.5</v>
+      </c>
+      <c r="L9">
+        <v>23.85</v>
+      </c>
+      <c r="M9">
+        <v>226.7760216066804</v>
+      </c>
+      <c r="N9">
+        <v>-202.9260216066804</v>
+      </c>
+      <c r="O9">
+        <v>-0</v>
+      </c>
+      <c r="P9">
+        <v>-202.9260216066804</v>
+      </c>
+      <c r="Q9">
+        <v>-195.4260216066804</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05641999781334771</v>
+      </c>
+      <c r="T9">
+        <v>0.9983050384183838</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.1837</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.1051698492240302</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06707359796641338</v>
+      </c>
+      <c r="C10">
+        <v>12028.27713099412</v>
+      </c>
+      <c r="D10">
+        <v>13204.6241430895</v>
+      </c>
+      <c r="E10">
+        <v>1390.259360903188</v>
+      </c>
+      <c r="F10">
+        <v>1410.847012095375</v>
+      </c>
+      <c r="G10">
+        <v>234.5</v>
+      </c>
+      <c r="H10">
+        <v>17615</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>31.35</v>
+      </c>
+      <c r="K10">
+        <v>7.5</v>
+      </c>
+      <c r="L10">
+        <v>23.85</v>
+      </c>
+      <c r="M10">
+        <v>259.1725961219204</v>
+      </c>
+      <c r="N10">
+        <v>-235.3225961219204</v>
+      </c>
+      <c r="O10">
+        <v>-0</v>
+      </c>
+      <c r="P10">
+        <v>-235.3225961219204</v>
+      </c>
+      <c r="Q10">
+        <v>-227.8225961219204</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05693217170262324</v>
+      </c>
+      <c r="T10">
+        <v>1.009156180140323</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.1837</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.09202361807102644</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06881759796641337</v>
+      </c>
+      <c r="C11">
+        <v>11464.99595352258</v>
+      </c>
+      <c r="D11">
+        <v>12817.69884212988</v>
+      </c>
+      <c r="E11">
+        <v>1566.61523741511</v>
+      </c>
+      <c r="F11">
+        <v>1587.202888607297</v>
+      </c>
+      <c r="G11">
+        <v>234.5</v>
+      </c>
+      <c r="H11">
+        <v>17615</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>31.35</v>
+      </c>
+      <c r="K11">
+        <v>7.5</v>
+      </c>
+      <c r="L11">
+        <v>23.85</v>
+      </c>
+      <c r="M11">
+        <v>291.5691706371604</v>
+      </c>
+      <c r="N11">
+        <v>-267.7191706371604</v>
+      </c>
+      <c r="O11">
+        <v>-0</v>
+      </c>
+      <c r="P11">
+        <v>-267.7191706371604</v>
+      </c>
+      <c r="Q11">
+        <v>-260.2191706371604</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05745560216089382</v>
+      </c>
+      <c r="T11">
+        <v>1.020245808493513</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.1837</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.08179877161869031</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07056159796641338</v>
+      </c>
+      <c r="C12">
+        <v>10923.7448159871</v>
+      </c>
+      <c r="D12">
+        <v>12452.80358110632</v>
+      </c>
+      <c r="E12">
+        <v>1742.971113927032</v>
+      </c>
+      <c r="F12">
+        <v>1763.558765119219</v>
+      </c>
+      <c r="G12">
+        <v>234.5</v>
+      </c>
+      <c r="H12">
+        <v>17615</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>31.35</v>
+      </c>
+      <c r="K12">
+        <v>7.5</v>
+      </c>
+      <c r="L12">
+        <v>23.85</v>
+      </c>
+      <c r="M12">
+        <v>323.9657451524005</v>
+      </c>
+      <c r="N12">
+        <v>-300.1157451524005</v>
+      </c>
+      <c r="O12">
+        <v>-0</v>
+      </c>
+      <c r="P12">
+        <v>-300.1157451524005</v>
+      </c>
+      <c r="Q12">
+        <v>-292.6157451524005</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05799066440712598</v>
+      </c>
+      <c r="T12">
+        <v>1.03158187303233</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.1837</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.07361889445682124</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07230559796641338</v>
+      </c>
+      <c r="C13">
+        <v>10402.69433857596</v>
+      </c>
+      <c r="D13">
+        <v>12108.10898020711</v>
+      </c>
+      <c r="E13">
+        <v>1919.326990438953</v>
+      </c>
+      <c r="F13">
+        <v>1939.914641631141</v>
+      </c>
+      <c r="G13">
+        <v>234.5</v>
+      </c>
+      <c r="H13">
+        <v>17615</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>31.35</v>
+      </c>
+      <c r="K13">
+        <v>7.5</v>
+      </c>
+      <c r="L13">
+        <v>23.85</v>
+      </c>
+      <c r="M13">
+        <v>356.3623196676406</v>
+      </c>
+      <c r="N13">
+        <v>-332.5123196676406</v>
+      </c>
+      <c r="O13">
+        <v>-0</v>
+      </c>
+      <c r="P13">
+        <v>-332.5123196676406</v>
+      </c>
+      <c r="Q13">
+        <v>-325.0123196676406</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05853775052405998</v>
+      </c>
+      <c r="T13">
+        <v>1.043172680594491</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.1837</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.06692626768801935</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07404959796641336</v>
+      </c>
+      <c r="C14">
+        <v>9900.212235420375</v>
+      </c>
+      <c r="D14">
+        <v>11781.98275356344</v>
+      </c>
+      <c r="E14">
+        <v>2095.682866950875</v>
+      </c>
+      <c r="F14">
+        <v>2116.270518143062</v>
+      </c>
+      <c r="G14">
+        <v>234.5</v>
+      </c>
+      <c r="H14">
+        <v>17615</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>31.35</v>
+      </c>
+      <c r="K14">
+        <v>7.5</v>
+      </c>
+      <c r="L14">
+        <v>23.85</v>
+      </c>
+      <c r="M14">
+        <v>388.7588941828806</v>
+      </c>
+      <c r="N14">
+        <v>-364.9088941828805</v>
+      </c>
+      <c r="O14">
+        <v>-0</v>
+      </c>
+      <c r="P14">
+        <v>-364.9088941828805</v>
+      </c>
+      <c r="Q14">
+        <v>-357.4088941828805</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05909727041637883</v>
+      </c>
+      <c r="T14">
+        <v>1.055026915601246</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.1837</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.06134907871401774</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07579359796641337</v>
+      </c>
+      <c r="C15">
+        <v>9414.837467607163</v>
+      </c>
+      <c r="D15">
+        <v>11472.96386226215</v>
+      </c>
+      <c r="E15">
+        <v>2272.038743462797</v>
+      </c>
+      <c r="F15">
+        <v>2292.626394654985</v>
+      </c>
+      <c r="G15">
+        <v>234.5</v>
+      </c>
+      <c r="H15">
+        <v>17615</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>31.35</v>
+      </c>
+      <c r="K15">
+        <v>7.5</v>
+      </c>
+      <c r="L15">
+        <v>23.85</v>
+      </c>
+      <c r="M15">
+        <v>421.1554686981207</v>
+      </c>
+      <c r="N15">
+        <v>-397.3054686981207</v>
+      </c>
+      <c r="O15">
+        <v>-0</v>
+      </c>
+      <c r="P15">
+        <v>-397.3054686981207</v>
+      </c>
+      <c r="Q15">
+        <v>-389.8054686981207</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0596696528349579</v>
+      </c>
+      <c r="T15">
+        <v>1.067153661757583</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.1837</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.05662991881293944</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07753759796641338</v>
+      </c>
+      <c r="C16">
+        <v>8945.258359737745</v>
+      </c>
+      <c r="D16">
+        <v>11179.74063090465</v>
+      </c>
+      <c r="E16">
+        <v>2448.394619974719</v>
+      </c>
+      <c r="F16">
+        <v>2468.982271166907</v>
+      </c>
+      <c r="G16">
+        <v>234.5</v>
+      </c>
+      <c r="H16">
+        <v>17615</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>31.35</v>
+      </c>
+      <c r="K16">
+        <v>7.5</v>
+      </c>
+      <c r="L16">
+        <v>23.85</v>
+      </c>
+      <c r="M16">
+        <v>453.5520432133608</v>
+      </c>
+      <c r="N16">
+        <v>-429.7020432133608</v>
+      </c>
+      <c r="O16">
+        <v>-0</v>
+      </c>
+      <c r="P16">
+        <v>-429.7020432133608</v>
+      </c>
+      <c r="Q16">
+        <v>-422.2020432133608</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06025534647257369</v>
+      </c>
+      <c r="T16">
+        <v>1.079562425266392</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.1837</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.05258492461201514</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07928159796641338</v>
+      </c>
+      <c r="C17">
+        <v>8490.293988609068</v>
+      </c>
+      <c r="D17">
+        <v>10901.1321362879</v>
+      </c>
+      <c r="E17">
+        <v>2624.750496486641</v>
+      </c>
+      <c r="F17">
+        <v>2645.338147678828</v>
+      </c>
+      <c r="G17">
+        <v>234.5</v>
+      </c>
+      <c r="H17">
+        <v>17615</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>31.35</v>
+      </c>
+      <c r="K17">
+        <v>7.5</v>
+      </c>
+      <c r="L17">
+        <v>23.85</v>
+      </c>
+      <c r="M17">
+        <v>485.9486177286007</v>
+      </c>
+      <c r="N17">
+        <v>-462.0986177286007</v>
+      </c>
+      <c r="O17">
+        <v>-0</v>
+      </c>
+      <c r="P17">
+        <v>-462.0986177286007</v>
+      </c>
+      <c r="Q17">
+        <v>-454.5986177286007</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06085482113695692</v>
+      </c>
+      <c r="T17">
+        <v>1.092263159681291</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.1837</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.04907926297121412</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08102559796641337</v>
+      </c>
+      <c r="C18">
+        <v>8048.878287087549</v>
+      </c>
+      <c r="D18">
+        <v>10636.0723112783</v>
+      </c>
+      <c r="E18">
+        <v>2801.106372998563</v>
+      </c>
+      <c r="F18">
+        <v>2821.69402419075</v>
+      </c>
+      <c r="G18">
+        <v>234.5</v>
+      </c>
+      <c r="H18">
+        <v>17615</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>31.35</v>
+      </c>
+      <c r="K18">
+        <v>7.5</v>
+      </c>
+      <c r="L18">
+        <v>23.85</v>
+      </c>
+      <c r="M18">
+        <v>518.3451922438408</v>
+      </c>
+      <c r="N18">
+        <v>-494.4951922438407</v>
+      </c>
+      <c r="O18">
+        <v>-0</v>
+      </c>
+      <c r="P18">
+        <v>-494.4951922438407</v>
+      </c>
+      <c r="Q18">
+        <v>-486.9951922438407</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06146856900763498</v>
+      </c>
+      <c r="T18">
+        <v>1.105266292534639</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.1837</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.04601180903551327</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08276959796641338</v>
+      </c>
+      <c r="C19">
+        <v>7620.046412008858</v>
+      </c>
+      <c r="D19">
+        <v>10383.59631271153</v>
+      </c>
+      <c r="E19">
+        <v>2977.462249510485</v>
+      </c>
+      <c r="F19">
+        <v>2998.049900702672</v>
+      </c>
+      <c r="G19">
+        <v>234.5</v>
+      </c>
+      <c r="H19">
+        <v>17615</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>31.35</v>
+      </c>
+      <c r="K19">
+        <v>7.5</v>
+      </c>
+      <c r="L19">
+        <v>23.85</v>
+      </c>
+      <c r="M19">
+        <v>550.741766759081</v>
+      </c>
+      <c r="N19">
+        <v>-526.891766759081</v>
+      </c>
+      <c r="O19">
+        <v>-0</v>
+      </c>
+      <c r="P19">
+        <v>-526.891766759081</v>
+      </c>
+      <c r="Q19">
+        <v>-519.391766759081</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06209710598363058</v>
+      </c>
+      <c r="T19">
+        <v>1.118582753890478</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.1837</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.04330523203342429</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08451359796641338</v>
+      </c>
+      <c r="C20">
+        <v>7202.923008626922</v>
+      </c>
+      <c r="D20">
+        <v>10142.82878584152</v>
+      </c>
+      <c r="E20">
+        <v>3153.818126022406</v>
+      </c>
+      <c r="F20">
+        <v>3174.405777214594</v>
+      </c>
+      <c r="G20">
+        <v>234.5</v>
+      </c>
+      <c r="H20">
+        <v>17615</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>31.35</v>
+      </c>
+      <c r="K20">
+        <v>7.5</v>
+      </c>
+      <c r="L20">
+        <v>23.85</v>
+      </c>
+      <c r="M20">
+        <v>583.1383412743209</v>
+      </c>
+      <c r="N20">
+        <v>-559.2883412743208</v>
+      </c>
+      <c r="O20">
+        <v>-0</v>
+      </c>
+      <c r="P20">
+        <v>-559.2883412743208</v>
+      </c>
+      <c r="Q20">
+        <v>-551.7883412743208</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06274097312977241</v>
+      </c>
+      <c r="T20">
+        <v>1.132224006986704</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.1837</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.04089938580934516</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08625759796641339</v>
+      </c>
+      <c r="C21">
+        <v>6796.712070757344</v>
+      </c>
+      <c r="D21">
+        <v>9912.97372448386</v>
+      </c>
+      <c r="E21">
+        <v>3330.174002534328</v>
+      </c>
+      <c r="F21">
+        <v>3350.761653726516</v>
+      </c>
+      <c r="G21">
+        <v>234.5</v>
+      </c>
+      <c r="H21">
+        <v>17615</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>31.35</v>
+      </c>
+      <c r="K21">
+        <v>7.5</v>
+      </c>
+      <c r="L21">
+        <v>23.85</v>
+      </c>
+      <c r="M21">
+        <v>615.534915789561</v>
+      </c>
+      <c r="N21">
+        <v>-591.6849157895609</v>
+      </c>
+      <c r="O21">
+        <v>-0</v>
+      </c>
+      <c r="P21">
+        <v>-591.6849157895609</v>
+      </c>
+      <c r="Q21">
+        <v>-584.1849157895609</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06340073823013997</v>
+      </c>
+      <c r="T21">
+        <v>1.146202081147033</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.1837</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.03874678655622166</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08800159796641338</v>
+      </c>
+      <c r="C22">
+        <v>6400.688149094956</v>
+      </c>
+      <c r="D22">
+        <v>9693.305679333394</v>
+      </c>
+      <c r="E22">
+        <v>3506.529879046251</v>
+      </c>
+      <c r="F22">
+        <v>3527.117530238438</v>
+      </c>
+      <c r="G22">
+        <v>234.5</v>
+      </c>
+      <c r="H22">
+        <v>17615</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>31.35</v>
+      </c>
+      <c r="K22">
+        <v>7.5</v>
+      </c>
+      <c r="L22">
+        <v>23.85</v>
+      </c>
+      <c r="M22">
+        <v>647.9314903048011</v>
+      </c>
+      <c r="N22">
+        <v>-624.081490304801</v>
+      </c>
+      <c r="O22">
+        <v>-0</v>
+      </c>
+      <c r="P22">
+        <v>-624.081490304801</v>
+      </c>
+      <c r="Q22">
+        <v>-616.581490304801</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06407699745801672</v>
+      </c>
+      <c r="T22">
+        <v>1.160529607161371</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.1837</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.03680944722841062</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08974559796641338</v>
+      </c>
+      <c r="C23">
+        <v>6014.188703113698</v>
+      </c>
+      <c r="D23">
+        <v>9483.162109864057</v>
+      </c>
+      <c r="E23">
+        <v>3682.885755558172</v>
+      </c>
+      <c r="F23">
+        <v>3703.47340675036</v>
+      </c>
+      <c r="G23">
+        <v>234.5</v>
+      </c>
+      <c r="H23">
+        <v>17615</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>31.35</v>
+      </c>
+      <c r="K23">
+        <v>7.5</v>
+      </c>
+      <c r="L23">
+        <v>23.85</v>
+      </c>
+      <c r="M23">
+        <v>680.328064820041</v>
+      </c>
+      <c r="N23">
+        <v>-656.478064820041</v>
+      </c>
+      <c r="O23">
+        <v>-0</v>
+      </c>
+      <c r="P23">
+        <v>-656.478064820041</v>
+      </c>
+      <c r="Q23">
+        <v>-648.978064820041</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06477037717267516</v>
+      </c>
+      <c r="T23">
+        <v>1.175219855353287</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.1837</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.03505661640801017</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09148959796641337</v>
+      </c>
+      <c r="C24">
+        <v>5636.607426687286</v>
+      </c>
+      <c r="D24">
+        <v>9281.936709949567</v>
+      </c>
+      <c r="E24">
+        <v>3859.241632070094</v>
+      </c>
+      <c r="F24">
+        <v>3879.829283262281</v>
+      </c>
+      <c r="G24">
+        <v>234.5</v>
+      </c>
+      <c r="H24">
+        <v>17615</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>31.35</v>
+      </c>
+      <c r="K24">
+        <v>7.5</v>
+      </c>
+      <c r="L24">
+        <v>23.85</v>
+      </c>
+      <c r="M24">
+        <v>712.7246393352812</v>
+      </c>
+      <c r="N24">
+        <v>-688.8746393352811</v>
+      </c>
+      <c r="O24">
+        <v>-0</v>
+      </c>
+      <c r="P24">
+        <v>-688.8746393352811</v>
+      </c>
+      <c r="Q24">
+        <v>-681.3746393352811</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06548153585437612</v>
+      </c>
+      <c r="T24">
+        <v>1.190286776575765</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.1837</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.03346313384400967</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09323359796641337</v>
+      </c>
+      <c r="C25">
+        <v>5267.388405804621</v>
+      </c>
+      <c r="D25">
+        <v>9089.073565578825</v>
+      </c>
+      <c r="E25">
+        <v>4035.597508582016</v>
+      </c>
+      <c r="F25">
+        <v>4056.185159774203</v>
+      </c>
+      <c r="G25">
+        <v>234.5</v>
+      </c>
+      <c r="H25">
+        <v>17615</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>31.35</v>
+      </c>
+      <c r="K25">
+        <v>7.5</v>
+      </c>
+      <c r="L25">
+        <v>23.85</v>
+      </c>
+      <c r="M25">
+        <v>745.1212138505211</v>
+      </c>
+      <c r="N25">
+        <v>-721.2712138505211</v>
+      </c>
+      <c r="O25">
+        <v>-0</v>
+      </c>
+      <c r="P25">
+        <v>-721.2712138505211</v>
+      </c>
+      <c r="Q25">
+        <v>-713.7712138505211</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06621116619014723</v>
+      </c>
+      <c r="T25">
+        <v>1.205745046401425</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.1837</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.03200821498122663</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09497759796641338</v>
+      </c>
+      <c r="C26">
+        <v>4906.02098981673</v>
+      </c>
+      <c r="D26">
+        <v>8904.062026102854</v>
+      </c>
+      <c r="E26">
+        <v>4211.953385093938</v>
+      </c>
+      <c r="F26">
+        <v>4232.541036286125</v>
+      </c>
+      <c r="G26">
+        <v>234.5</v>
+      </c>
+      <c r="H26">
+        <v>17615</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>31.35</v>
+      </c>
+      <c r="K26">
+        <v>7.5</v>
+      </c>
+      <c r="L26">
+        <v>23.85</v>
+      </c>
+      <c r="M26">
+        <v>777.5177883657611</v>
+      </c>
+      <c r="N26">
+        <v>-753.6677883657611</v>
+      </c>
+      <c r="O26">
+        <v>-0</v>
+      </c>
+      <c r="P26">
+        <v>-753.6677883657611</v>
+      </c>
+      <c r="Q26">
+        <v>-746.1677883657611</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06695999732422812</v>
+      </c>
+      <c r="T26">
+        <v>1.221610112801443</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.1837</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.03067453935700881</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09672159796641337</v>
+      </c>
+      <c r="C27">
+        <v>4552.035276573964</v>
+      </c>
+      <c r="D27">
+        <v>8726.432189372012</v>
+      </c>
+      <c r="E27">
+        <v>4388.30926160586</v>
+      </c>
+      <c r="F27">
+        <v>4408.896912798047</v>
+      </c>
+      <c r="G27">
+        <v>234.5</v>
+      </c>
+      <c r="H27">
+        <v>17615</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>31.35</v>
+      </c>
+      <c r="K27">
+        <v>7.5</v>
+      </c>
+      <c r="L27">
+        <v>23.85</v>
+      </c>
+      <c r="M27">
+        <v>809.9143628810012</v>
+      </c>
+      <c r="N27">
+        <v>-786.0643628810012</v>
+      </c>
+      <c r="O27">
+        <v>-0</v>
+      </c>
+      <c r="P27">
+        <v>-786.0643628810012</v>
+      </c>
+      <c r="Q27">
+        <v>-778.5643628810012</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06772879728855116</v>
+      </c>
+      <c r="T27">
+        <v>1.237898247638796</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.1837</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.02944755778272845</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09846559796641337</v>
+      </c>
+      <c r="C28">
+        <v>4204.998127403528</v>
+      </c>
+      <c r="D28">
+        <v>8555.750916713498</v>
+      </c>
+      <c r="E28">
+        <v>4564.665138117783</v>
+      </c>
+      <c r="F28">
+        <v>4585.25278930997</v>
+      </c>
+      <c r="G28">
+        <v>234.5</v>
+      </c>
+      <c r="H28">
+        <v>17615</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>31.35</v>
+      </c>
+      <c r="K28">
+        <v>7.5</v>
+      </c>
+      <c r="L28">
+        <v>23.85</v>
+      </c>
+      <c r="M28">
+        <v>842.3109373962415</v>
+      </c>
+      <c r="N28">
+        <v>-818.4609373962414</v>
+      </c>
+      <c r="O28">
+        <v>-0</v>
+      </c>
+      <c r="P28">
+        <v>-818.4609373962414</v>
+      </c>
+      <c r="Q28">
+        <v>-810.9609373962414</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06851837563028834</v>
+      </c>
+      <c r="T28">
+        <v>1.254626602336617</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.1837</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.02831495940646966</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1002095979664134</v>
+      </c>
+      <c r="C29">
+        <v>3864.509640776435</v>
+      </c>
+      <c r="D29">
+        <v>8391.618306598326</v>
+      </c>
+      <c r="E29">
+        <v>4741.021014629704</v>
+      </c>
+      <c r="F29">
+        <v>4761.608665821891</v>
+      </c>
+      <c r="G29">
+        <v>234.5</v>
+      </c>
+      <c r="H29">
+        <v>17615</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>31.35</v>
+      </c>
+      <c r="K29">
+        <v>7.5</v>
+      </c>
+      <c r="L29">
+        <v>23.85</v>
+      </c>
+      <c r="M29">
+        <v>874.7075119114813</v>
+      </c>
+      <c r="N29">
+        <v>-850.8575119114813</v>
+      </c>
+      <c r="O29">
+        <v>-0</v>
+      </c>
+      <c r="P29">
+        <v>-850.8575119114813</v>
+      </c>
+      <c r="Q29">
+        <v>-843.3575119114813</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06932958625536079</v>
+      </c>
+      <c r="T29">
+        <v>1.271813268122051</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.1837</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.0272662572062301</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1019535979664134</v>
+      </c>
+      <c r="C30">
+        <v>3530.200024227212</v>
+      </c>
+      <c r="D30">
+        <v>8233.664566561025</v>
+      </c>
+      <c r="E30">
+        <v>4917.376891141626</v>
+      </c>
+      <c r="F30">
+        <v>4937.964542333813</v>
+      </c>
+      <c r="G30">
+        <v>234.5</v>
+      </c>
+      <c r="H30">
+        <v>17615</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>31.35</v>
+      </c>
+      <c r="K30">
+        <v>7.5</v>
+      </c>
+      <c r="L30">
+        <v>23.85</v>
+      </c>
+      <c r="M30">
+        <v>907.1040864267216</v>
+      </c>
+      <c r="N30">
+        <v>-883.2540864267215</v>
+      </c>
+      <c r="O30">
+        <v>-0</v>
+      </c>
+      <c r="P30">
+        <v>-883.2540864267215</v>
+      </c>
+      <c r="Q30">
+        <v>-875.7540864267215</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07016333050890747</v>
+      </c>
+      <c r="T30">
+        <v>1.289477341290412</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.1837</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.02629246230600757</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1036975979664134</v>
+      </c>
+      <c r="C31">
+        <v>3201.726813022182</v>
+      </c>
+      <c r="D31">
+        <v>8081.547231867917</v>
+      </c>
+      <c r="E31">
+        <v>5093.732767653548</v>
+      </c>
+      <c r="F31">
+        <v>5114.320418845735</v>
+      </c>
+      <c r="G31">
+        <v>234.5</v>
+      </c>
+      <c r="H31">
+        <v>17615</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>31.35</v>
+      </c>
+      <c r="K31">
+        <v>7.5</v>
+      </c>
+      <c r="L31">
+        <v>23.85</v>
+      </c>
+      <c r="M31">
+        <v>939.5006609419615</v>
+      </c>
+      <c r="N31">
+        <v>-915.6506609419615</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-915.6506609419615</v>
+      </c>
+      <c r="Q31">
+        <v>-908.1506609419615</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07102056051607518</v>
+      </c>
+      <c r="T31">
+        <v>1.307638993984644</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.1837</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.02538582567476599</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1054415979664134</v>
+      </c>
+      <c r="C32">
+        <v>2878.772391546388</v>
+      </c>
+      <c r="D32">
+        <v>7934.948686904045</v>
+      </c>
+      <c r="E32">
+        <v>5270.088644165469</v>
+      </c>
+      <c r="F32">
+        <v>5290.676295357656</v>
+      </c>
+      <c r="G32">
+        <v>234.5</v>
+      </c>
+      <c r="H32">
+        <v>17615</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>31.35</v>
+      </c>
+      <c r="K32">
+        <v>7.5</v>
+      </c>
+      <c r="L32">
+        <v>23.85</v>
+      </c>
+      <c r="M32">
+        <v>971.8972354572014</v>
+      </c>
+      <c r="N32">
+        <v>-948.0472354572014</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-948.0472354572014</v>
+      </c>
+      <c r="Q32">
+        <v>-940.5472354572014</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07190228280916197</v>
+      </c>
+      <c r="T32">
+        <v>1.326319551041567</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.1837</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.02453963148560712</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1071855979664134</v>
+      </c>
+      <c r="C33">
+        <v>2561.041779655018</v>
+      </c>
+      <c r="D33">
+        <v>7793.573951524597</v>
+      </c>
+      <c r="E33">
+        <v>5446.444520677392</v>
+      </c>
+      <c r="F33">
+        <v>5467.032171869579</v>
+      </c>
+      <c r="G33">
+        <v>234.5</v>
+      </c>
+      <c r="H33">
+        <v>17615</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>31.35</v>
+      </c>
+      <c r="K33">
+        <v>7.5</v>
+      </c>
+      <c r="L33">
+        <v>23.85</v>
+      </c>
+      <c r="M33">
+        <v>1004.293809972442</v>
+      </c>
+      <c r="N33">
+        <v>-980.4438099724416</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-980.4438099724416</v>
+      </c>
+      <c r="Q33">
+        <v>-972.9438099724416</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07280956227016432</v>
+      </c>
+      <c r="T33">
+        <v>1.34554157352043</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.1837</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.02374803046994234</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1089295979664134</v>
+      </c>
+      <c r="C34">
+        <v>2248.26065152218</v>
+      </c>
+      <c r="D34">
+        <v>7657.14869990368</v>
+      </c>
+      <c r="E34">
+        <v>5622.800397189313</v>
+      </c>
+      <c r="F34">
+        <v>5643.3880483815</v>
+      </c>
+      <c r="G34">
+        <v>234.5</v>
+      </c>
+      <c r="H34">
+        <v>17615</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>31.35</v>
+      </c>
+      <c r="K34">
+        <v>7.5</v>
+      </c>
+      <c r="L34">
+        <v>23.85</v>
+      </c>
+      <c r="M34">
+        <v>1036.690384487682</v>
+      </c>
+      <c r="N34">
+        <v>-1012.840384487681</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-1012.840384487681</v>
+      </c>
+      <c r="Q34">
+        <v>-1005.340384487681</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07374352642119615</v>
+      </c>
+      <c r="T34">
+        <v>1.365328949601613</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.1837</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.02300590451775664</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1106735979664134</v>
+      </c>
+      <c r="C35">
+        <v>1940.173558988345</v>
+      </c>
+      <c r="D35">
+        <v>7525.417483881767</v>
+      </c>
+      <c r="E35">
+        <v>5799.156273701235</v>
+      </c>
+      <c r="F35">
+        <v>5819.743924893422</v>
+      </c>
+      <c r="G35">
+        <v>234.5</v>
+      </c>
+      <c r="H35">
+        <v>17615</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>31.35</v>
+      </c>
+      <c r="K35">
+        <v>7.5</v>
+      </c>
+      <c r="L35">
+        <v>23.85</v>
+      </c>
+      <c r="M35">
+        <v>1069.086959002922</v>
+      </c>
+      <c r="N35">
+        <v>-1045.236959002922</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-1045.236959002922</v>
+      </c>
+      <c r="Q35">
+        <v>-1037.736959002922</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07470537009912445</v>
+      </c>
+      <c r="T35">
+        <v>1.385706993625518</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.1837</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.02230875589600634</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1124175979664134</v>
+      </c>
+      <c r="C36">
+        <v>1636.542335196084</v>
+      </c>
+      <c r="D36">
+        <v>7398.142136601428</v>
+      </c>
+      <c r="E36">
+        <v>5975.512150213158</v>
+      </c>
+      <c r="F36">
+        <v>5996.099801405345</v>
+      </c>
+      <c r="G36">
+        <v>234.5</v>
+      </c>
+      <c r="H36">
+        <v>17615</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>31.35</v>
+      </c>
+      <c r="K36">
+        <v>7.5</v>
+      </c>
+      <c r="L36">
+        <v>23.85</v>
+      </c>
+      <c r="M36">
+        <v>1101.483533518162</v>
+      </c>
+      <c r="N36">
+        <v>-1077.633533518162</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-1077.633533518162</v>
+      </c>
+      <c r="Q36">
+        <v>-1070.133533518162</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07569636055517179</v>
+      </c>
+      <c r="T36">
+        <v>1.406702554134995</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1837</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.02165261601671198</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1141615979664134</v>
+      </c>
+      <c r="C37">
+        <v>1337.144657524833</v>
+      </c>
+      <c r="D37">
+        <v>7275.100335442099</v>
+      </c>
+      <c r="E37">
+        <v>6151.868026725079</v>
+      </c>
+      <c r="F37">
+        <v>6172.455677917266</v>
+      </c>
+      <c r="G37">
+        <v>234.5</v>
+      </c>
+      <c r="H37">
+        <v>17615</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>31.35</v>
+      </c>
+      <c r="K37">
+        <v>7.5</v>
+      </c>
+      <c r="L37">
+        <v>23.85</v>
+      </c>
+      <c r="M37">
+        <v>1133.880108033402</v>
+      </c>
+      <c r="N37">
+        <v>-1110.030108033402</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-1110.030108033402</v>
+      </c>
+      <c r="Q37">
+        <v>-1102.530108033402</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07671784302525135</v>
+      </c>
+      <c r="T37">
+        <v>1.428344131890918</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1837</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.02103396984480599</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1159055979664134</v>
+      </c>
+      <c r="C38">
+        <v>1041.772751582559</v>
+      </c>
+      <c r="D38">
+        <v>7156.084306011747</v>
+      </c>
+      <c r="E38">
+        <v>6328.223903237001</v>
+      </c>
+      <c r="F38">
+        <v>6348.811554429188</v>
+      </c>
+      <c r="G38">
+        <v>234.5</v>
+      </c>
+      <c r="H38">
+        <v>17615</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>31.35</v>
+      </c>
+      <c r="K38">
+        <v>7.5</v>
+      </c>
+      <c r="L38">
+        <v>23.85</v>
+      </c>
+      <c r="M38">
+        <v>1166.276682548642</v>
+      </c>
+      <c r="N38">
+        <v>-1142.426682548642</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-1142.426682548642</v>
+      </c>
+      <c r="Q38">
+        <v>-1134.926682548642</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.0777712468225209</v>
+      </c>
+      <c r="T38">
+        <v>1.450662008951714</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1837</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.02044969290467247</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1176495979664134</v>
+      </c>
+      <c r="C39">
+        <v>750.2322203610429</v>
+      </c>
+      <c r="D39">
+        <v>7040.899651302153</v>
+      </c>
+      <c r="E39">
+        <v>6504.579779748923</v>
+      </c>
+      <c r="F39">
+        <v>6525.16743094111</v>
+      </c>
+      <c r="G39">
+        <v>234.5</v>
+      </c>
+      <c r="H39">
+        <v>17615</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>31.35</v>
+      </c>
+      <c r="K39">
+        <v>7.5</v>
+      </c>
+      <c r="L39">
+        <v>23.85</v>
+      </c>
+      <c r="M39">
+        <v>1198.673257063882</v>
+      </c>
+      <c r="N39">
+        <v>-1174.823257063882</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-1174.823257063882</v>
+      </c>
+      <c r="Q39">
+        <v>-1167.323257063882</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07885809201017996</v>
+      </c>
+      <c r="T39">
+        <v>1.473688390046186</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1837</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.01989699850184345</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1193935979664134</v>
+      </c>
+      <c r="C40">
+        <v>462.340984675765</v>
+      </c>
+      <c r="D40">
+        <v>6929.364292128796</v>
+      </c>
+      <c r="E40">
+        <v>6680.935656260845</v>
+      </c>
+      <c r="F40">
+        <v>6701.523307453032</v>
+      </c>
+      <c r="G40">
+        <v>234.5</v>
+      </c>
+      <c r="H40">
+        <v>17615</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>31.35</v>
+      </c>
+      <c r="K40">
+        <v>7.5</v>
+      </c>
+      <c r="L40">
+        <v>23.85</v>
+      </c>
+      <c r="M40">
+        <v>1231.069831579122</v>
+      </c>
+      <c r="N40">
+        <v>-1207.219831579122</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-1207.219831579122</v>
+      </c>
+      <c r="Q40">
+        <v>-1199.719831579122</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07997999672002157</v>
+      </c>
+      <c r="T40">
+        <v>1.497457557627576</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1837</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.01937339327811072</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1211375979664134</v>
+      </c>
+      <c r="C41">
+        <v>177.9283227427022</v>
+      </c>
+      <c r="D41">
+        <v>6821.307506707656</v>
+      </c>
+      <c r="E41">
+        <v>6857.291532772767</v>
+      </c>
+      <c r="F41">
+        <v>6877.879183964954</v>
+      </c>
+      <c r="G41">
+        <v>234.5</v>
+      </c>
+      <c r="H41">
+        <v>17615</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>31.35</v>
+      </c>
+      <c r="K41">
+        <v>7.5</v>
+      </c>
+      <c r="L41">
+        <v>23.85</v>
+      </c>
+      <c r="M41">
+        <v>1263.466406094362</v>
+      </c>
+      <c r="N41">
+        <v>-1239.616406094362</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-1239.616406094362</v>
+      </c>
+      <c r="Q41">
+        <v>-1232.116406094362</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08113868519084161</v>
+      </c>
+      <c r="T41">
+        <v>1.522006042178847</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1837</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.01887663960431307</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1228815979664134</v>
+      </c>
+      <c r="C42">
+        <v>-103.166001763374</v>
+      </c>
+      <c r="D42">
+        <v>6716.569058713502</v>
+      </c>
+      <c r="E42">
+        <v>7033.647409284689</v>
+      </c>
+      <c r="F42">
+        <v>7054.235060476876</v>
+      </c>
+      <c r="G42">
+        <v>234.5</v>
+      </c>
+      <c r="H42">
+        <v>17615</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>31.35</v>
+      </c>
+      <c r="K42">
+        <v>7.5</v>
+      </c>
+      <c r="L42">
+        <v>23.85</v>
+      </c>
+      <c r="M42">
+        <v>1295.862980609602</v>
+      </c>
+      <c r="N42">
+        <v>-1272.012980609602</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-1272.012980609602</v>
+      </c>
+      <c r="Q42">
+        <v>-1264.512980609602</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08233599661068895</v>
+      </c>
+      <c r="T42">
+        <v>1.547372809548495</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1837</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.0184047236142052</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1246255979664134</v>
+      </c>
+      <c r="C43">
+        <v>-381.0925325354865</v>
+      </c>
+      <c r="D43">
+        <v>6614.998404453311</v>
+      </c>
+      <c r="E43">
+        <v>7210.003285796611</v>
+      </c>
+      <c r="F43">
+        <v>7230.590936988798</v>
+      </c>
+      <c r="G43">
+        <v>234.5</v>
+      </c>
+      <c r="H43">
+        <v>17615</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>31.35</v>
+      </c>
+      <c r="K43">
+        <v>7.5</v>
+      </c>
+      <c r="L43">
+        <v>23.85</v>
+      </c>
+      <c r="M43">
+        <v>1328.259555124842</v>
+      </c>
+      <c r="N43">
+        <v>-1304.409555124842</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-1304.409555124842</v>
+      </c>
+      <c r="Q43">
+        <v>-1296.909555124842</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08357389485832775</v>
+      </c>
+      <c r="T43">
+        <v>1.573599467337452</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1837</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.0179558279162978</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1263695979664134</v>
+      </c>
+      <c r="C44">
+        <v>-655.9928425960443</v>
+      </c>
+      <c r="D44">
+        <v>6516.453970904675</v>
+      </c>
+      <c r="E44">
+        <v>7386.359162308532</v>
+      </c>
+      <c r="F44">
+        <v>7406.946813500719</v>
+      </c>
+      <c r="G44">
+        <v>234.5</v>
+      </c>
+      <c r="H44">
+        <v>17615</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>31.35</v>
+      </c>
+      <c r="K44">
+        <v>7.5</v>
+      </c>
+      <c r="L44">
+        <v>23.85</v>
+      </c>
+      <c r="M44">
+        <v>1360.656129640082</v>
+      </c>
+      <c r="N44">
+        <v>-1336.806129640082</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-1336.806129640082</v>
+      </c>
+      <c r="Q44">
+        <v>-1329.306129640082</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08485447925243685</v>
+      </c>
+      <c r="T44">
+        <v>1.600730492636374</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.01752830820400497</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1281135979664134</v>
+      </c>
+      <c r="C45">
+        <v>-928.00019267474</v>
+      </c>
+      <c r="D45">
+        <v>6420.802497337902</v>
+      </c>
+      <c r="E45">
+        <v>7562.715038820455</v>
+      </c>
+      <c r="F45">
+        <v>7583.302690012642</v>
+      </c>
+      <c r="G45">
+        <v>234.5</v>
+      </c>
+      <c r="H45">
+        <v>17615</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>31.35</v>
+      </c>
+      <c r="K45">
+        <v>7.5</v>
+      </c>
+      <c r="L45">
+        <v>23.85</v>
+      </c>
+      <c r="M45">
+        <v>1393.052704155322</v>
+      </c>
+      <c r="N45">
+        <v>-1369.202704155322</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-1369.202704155322</v>
+      </c>
+      <c r="Q45">
+        <v>-1361.702704155322</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08617999643230416</v>
+      </c>
+      <c r="T45">
+        <v>1.628813483735258</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.01712067312949328</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1298575979664134</v>
+      </c>
+      <c r="C46">
+        <v>-1197.240132441448</v>
+      </c>
+      <c r="D46">
+        <v>6327.918434083115</v>
+      </c>
+      <c r="E46">
+        <v>7739.070915332376</v>
+      </c>
+      <c r="F46">
+        <v>7759.658566524563</v>
+      </c>
+      <c r="G46">
+        <v>234.5</v>
+      </c>
+      <c r="H46">
+        <v>17615</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>31.35</v>
+      </c>
+      <c r="K46">
+        <v>7.5</v>
+      </c>
+      <c r="L46">
+        <v>23.85</v>
+      </c>
+      <c r="M46">
+        <v>1425.449278670562</v>
+      </c>
+      <c r="N46">
+        <v>-1401.599278670562</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-1401.599278670562</v>
+      </c>
+      <c r="Q46">
+        <v>-1394.099278670562</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08755285351145245</v>
+      </c>
+      <c r="T46">
+        <v>1.657899438801959</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.01673156692200473</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1316015979664134</v>
+      </c>
+      <c r="C47">
+        <v>-1463.831050298223</v>
+      </c>
+      <c r="D47">
+        <v>6237.683392738262</v>
+      </c>
+      <c r="E47">
+        <v>7915.426791844298</v>
+      </c>
+      <c r="F47">
+        <v>7936.014443036485</v>
+      </c>
+      <c r="G47">
+        <v>234.5</v>
+      </c>
+      <c r="H47">
+        <v>17615</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>31.35</v>
+      </c>
+      <c r="K47">
+        <v>7.5</v>
+      </c>
+      <c r="L47">
+        <v>23.85</v>
+      </c>
+      <c r="M47">
+        <v>1457.845853185802</v>
+      </c>
+      <c r="N47">
+        <v>-1433.995853185802</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-1433.995853185802</v>
+      </c>
+      <c r="Q47">
+        <v>-1426.495853185802</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08897563266620613</v>
+      </c>
+      <c r="T47">
+        <v>1.688043064961994</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.01635975432373793</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1333455979664134</v>
+      </c>
+      <c r="C48">
+        <v>-1727.884676793026</v>
+      </c>
+      <c r="D48">
+        <v>6149.98564275538</v>
+      </c>
+      <c r="E48">
+        <v>8091.78266835622</v>
+      </c>
+      <c r="F48">
+        <v>8112.370319548407</v>
+      </c>
+      <c r="G48">
+        <v>234.5</v>
+      </c>
+      <c r="H48">
+        <v>17615</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>31.35</v>
+      </c>
+      <c r="K48">
+        <v>7.5</v>
+      </c>
+      <c r="L48">
+        <v>23.85</v>
+      </c>
+      <c r="M48">
+        <v>1490.242427701042</v>
+      </c>
+      <c r="N48">
+        <v>-1466.392427701042</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-1466.392427701042</v>
+      </c>
+      <c r="Q48">
+        <v>-1458.892427701042</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09045110734520996</v>
+      </c>
+      <c r="T48">
+        <v>1.71930312172055</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.01600410749061321</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1350895979664134</v>
+      </c>
+      <c r="C49">
+        <v>-1989.506546156197</v>
+      </c>
+      <c r="D49">
+        <v>6064.719649904133</v>
+      </c>
+      <c r="E49">
+        <v>8268.138544868143</v>
+      </c>
+      <c r="F49">
+        <v>8288.72619606033</v>
+      </c>
+      <c r="G49">
+        <v>234.5</v>
+      </c>
+      <c r="H49">
+        <v>17615</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>31.35</v>
+      </c>
+      <c r="K49">
+        <v>7.5</v>
+      </c>
+      <c r="L49">
+        <v>23.85</v>
+      </c>
+      <c r="M49">
+        <v>1522.639002216283</v>
+      </c>
+      <c r="N49">
+        <v>-1498.789002216283</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-1498.789002216283</v>
+      </c>
+      <c r="Q49">
+        <v>-1491.289002216283</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.0919822603139875</v>
+      </c>
+      <c r="T49">
+        <v>1.751742803262447</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.01566359456528099</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1368335979664134</v>
+      </c>
+      <c r="C50">
+        <v>-2248.796419968327</v>
+      </c>
+      <c r="D50">
+        <v>5981.785652603923</v>
+      </c>
+      <c r="E50">
+        <v>8444.494421380063</v>
+      </c>
+      <c r="F50">
+        <v>8465.08207257225</v>
+      </c>
+      <c r="G50">
+        <v>234.5</v>
+      </c>
+      <c r="H50">
+        <v>17615</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>31.35</v>
+      </c>
+      <c r="K50">
+        <v>7.5</v>
+      </c>
+      <c r="L50">
+        <v>23.85</v>
+      </c>
+      <c r="M50">
+        <v>1555.035576731522</v>
+      </c>
+      <c r="N50">
+        <v>-1531.185576731522</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-1531.185576731522</v>
+      </c>
+      <c r="Q50">
+        <v>-1523.685576731522</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09357230378156418</v>
+      </c>
+      <c r="T50">
+        <v>1.785430164863648</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.01533726967850435</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1385775979664134</v>
+      </c>
+      <c r="C51">
+        <v>-2505.848676535607</v>
+      </c>
+      <c r="D51">
+        <v>5901.089272548566</v>
+      </c>
+      <c r="E51">
+        <v>8620.850297891986</v>
+      </c>
+      <c r="F51">
+        <v>8641.437949084173</v>
+      </c>
+      <c r="G51">
+        <v>234.5</v>
+      </c>
+      <c r="H51">
+        <v>17615</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>31.35</v>
+      </c>
+      <c r="K51">
+        <v>7.5</v>
+      </c>
+      <c r="L51">
+        <v>23.85</v>
+      </c>
+      <c r="M51">
+        <v>1587.432151246762</v>
+      </c>
+      <c r="N51">
+        <v>-1563.582151246763</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-1563.582151246763</v>
+      </c>
+      <c r="Q51">
+        <v>-1556.082151246763</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09522470189492818</v>
+      </c>
+      <c r="T51">
+        <v>1.820438599468817</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.01502426417486136</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1403215979664134</v>
+      </c>
+      <c r="C52">
+        <v>-2760.752669167763</v>
+      </c>
+      <c r="D52">
+        <v>5822.541156428331</v>
+      </c>
+      <c r="E52">
+        <v>8797.206174403907</v>
+      </c>
+      <c r="F52">
+        <v>8817.793825596094</v>
+      </c>
+      <c r="G52">
+        <v>234.5</v>
+      </c>
+      <c r="H52">
+        <v>17615</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>31.35</v>
+      </c>
+      <c r="K52">
+        <v>7.5</v>
+      </c>
+      <c r="L52">
+        <v>23.85</v>
+      </c>
+      <c r="M52">
+        <v>1619.828725762002</v>
+      </c>
+      <c r="N52">
+        <v>-1595.978725762003</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-1595.978725762003</v>
+      </c>
+      <c r="Q52">
+        <v>-1588.478725762003</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09694319593282676</v>
+      </c>
+      <c r="T52">
+        <v>1.856847371458194</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.01472377889136423</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1420655979664134</v>
+      </c>
+      <c r="C53">
+        <v>-3013.593056218175</v>
+      </c>
+      <c r="D53">
+        <v>5746.056645889841</v>
+      </c>
+      <c r="E53">
+        <v>8973.562050915829</v>
+      </c>
+      <c r="F53">
+        <v>8994.149702108016</v>
+      </c>
+      <c r="G53">
+        <v>234.5</v>
+      </c>
+      <c r="H53">
+        <v>17615</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>31.35</v>
+      </c>
+      <c r="K53">
+        <v>7.5</v>
+      </c>
+      <c r="L53">
+        <v>23.85</v>
+      </c>
+      <c r="M53">
+        <v>1652.225300277242</v>
+      </c>
+      <c r="N53">
+        <v>-1628.375300277243</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-1628.375300277243</v>
+      </c>
+      <c r="Q53">
+        <v>-1620.875300277243</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09873183258451709</v>
+      </c>
+      <c r="T53">
+        <v>1.894742215773667</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.01443507734447469</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1438095979664134</v>
+      </c>
+      <c r="C54">
+        <v>-3264.450105448896</v>
+      </c>
+      <c r="D54">
+        <v>5671.555473171044</v>
+      </c>
+      <c r="E54">
+        <v>9149.917927427752</v>
+      </c>
+      <c r="F54">
+        <v>9170.505578619939</v>
+      </c>
+      <c r="G54">
+        <v>234.5</v>
+      </c>
+      <c r="H54">
+        <v>17615</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>31.35</v>
+      </c>
+      <c r="K54">
+        <v>7.5</v>
+      </c>
+      <c r="L54">
+        <v>23.85</v>
+      </c>
+      <c r="M54">
+        <v>1684.621874792483</v>
+      </c>
+      <c r="N54">
+        <v>-1660.771874792483</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-1660.771874792483</v>
+      </c>
+      <c r="Q54">
+        <v>-1653.271874792483</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1005949957633612</v>
+      </c>
+      <c r="T54">
+        <v>1.934216011935619</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.01415747970323478</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1455535979664134</v>
+      </c>
+      <c r="C55">
+        <v>-3513.399975021085</v>
+      </c>
+      <c r="D55">
+        <v>5598.961480110775</v>
+      </c>
+      <c r="E55">
+        <v>9326.273803939674</v>
+      </c>
+      <c r="F55">
+        <v>9346.861455131861</v>
+      </c>
+      <c r="G55">
+        <v>234.5</v>
+      </c>
+      <c r="H55">
+        <v>17615</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>31.35</v>
+      </c>
+      <c r="K55">
+        <v>7.5</v>
+      </c>
+      <c r="L55">
+        <v>23.85</v>
+      </c>
+      <c r="M55">
+        <v>1717.018449307723</v>
+      </c>
+      <c r="N55">
+        <v>-1693.168449307723</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-1693.168449307723</v>
+      </c>
+      <c r="Q55">
+        <v>-1685.668449307723</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1025374424817306</v>
+      </c>
+      <c r="T55">
+        <v>1.975369544104462</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.01389035744468314</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1472975979664134</v>
+      </c>
+      <c r="C56">
+        <v>-3760.51497317866</v>
+      </c>
+      <c r="D56">
+        <v>5528.202358465122</v>
+      </c>
+      <c r="E56">
+        <v>9502.629680451595</v>
+      </c>
+      <c r="F56">
+        <v>9523.217331643782</v>
+      </c>
+      <c r="G56">
+        <v>234.5</v>
+      </c>
+      <c r="H56">
+        <v>17615</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>31.35</v>
+      </c>
+      <c r="K56">
+        <v>7.5</v>
+      </c>
+      <c r="L56">
+        <v>23.85</v>
+      </c>
+      <c r="M56">
+        <v>1749.415023822963</v>
+      </c>
+      <c r="N56">
+        <v>-1725.565023822963</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-1725.565023822963</v>
+      </c>
+      <c r="Q56">
+        <v>-1718.065023822963</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1045643434052465</v>
+      </c>
+      <c r="T56">
+        <v>2.018312360280646</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.01363312860311494</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1490415979664134</v>
+      </c>
+      <c r="C57">
+        <v>-4005.863798486548</v>
+      </c>
+      <c r="D57">
+        <v>5459.209409669157</v>
+      </c>
+      <c r="E57">
+        <v>9678.985556963518</v>
+      </c>
+      <c r="F57">
+        <v>9699.573208155705</v>
+      </c>
+      <c r="G57">
+        <v>234.5</v>
+      </c>
+      <c r="H57">
+        <v>17615</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>31.35</v>
+      </c>
+      <c r="K57">
+        <v>7.5</v>
+      </c>
+      <c r="L57">
+        <v>23.85</v>
+      </c>
+      <c r="M57">
+        <v>1781.811598338203</v>
+      </c>
+      <c r="N57">
+        <v>-1757.961598338203</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-1757.961598338203</v>
+      </c>
+      <c r="Q57">
+        <v>-1750.461598338203</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.106681328814252</v>
+      </c>
+      <c r="T57">
+        <v>2.06316374606466</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.01338525353760378</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1507855979664134</v>
+      </c>
+      <c r="C58">
+        <v>-4249.511762301398</v>
+      </c>
+      <c r="D58">
+        <v>5391.917322366229</v>
+      </c>
+      <c r="E58">
+        <v>9855.34143347544</v>
+      </c>
+      <c r="F58">
+        <v>9875.929084667627</v>
+      </c>
+      <c r="G58">
+        <v>234.5</v>
+      </c>
+      <c r="H58">
+        <v>17615</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>31.35</v>
+      </c>
+      <c r="K58">
+        <v>7.5</v>
+      </c>
+      <c r="L58">
+        <v>23.85</v>
+      </c>
+      <c r="M58">
+        <v>1814.208172853443</v>
+      </c>
+      <c r="N58">
+        <v>-1790.358172853443</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-1790.358172853443</v>
+      </c>
+      <c r="Q58">
+        <v>-1782.858172853443</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1088945408327577</v>
+      </c>
+      <c r="T58">
+        <v>2.110053831202493</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.01314623115300373</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1525295979664134</v>
+      </c>
+      <c r="C59">
+        <v>-4491.520994989126</v>
+      </c>
+      <c r="D59">
+        <v>5326.263966190422</v>
+      </c>
+      <c r="E59">
+        <v>10031.69730998736</v>
+      </c>
+      <c r="F59">
+        <v>10052.28496117955</v>
+      </c>
+      <c r="G59">
+        <v>234.5</v>
+      </c>
+      <c r="H59">
+        <v>17615</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>31.35</v>
+      </c>
+      <c r="K59">
+        <v>7.5</v>
+      </c>
+      <c r="L59">
+        <v>23.85</v>
+      </c>
+      <c r="M59">
+        <v>1846.604747368683</v>
+      </c>
+      <c r="N59">
+        <v>-1822.754747368683</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-1822.754747368683</v>
+      </c>
+      <c r="Q59">
+        <v>-1815.254747368683</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1112106929451474</v>
+      </c>
+      <c r="T59">
+        <v>2.159124850532784</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.01291559551874055</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1542735979664134</v>
+      </c>
+      <c r="C60">
+        <v>-4731.950637257954</v>
+      </c>
+      <c r="D60">
+        <v>5262.190200433515</v>
+      </c>
+      <c r="E60">
+        <v>10208.05318649928</v>
+      </c>
+      <c r="F60">
+        <v>10228.64083769147</v>
+      </c>
+      <c r="G60">
+        <v>234.5</v>
+      </c>
+      <c r="H60">
+        <v>17615</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>31.35</v>
+      </c>
+      <c r="K60">
+        <v>7.5</v>
+      </c>
+      <c r="L60">
+        <v>23.85</v>
+      </c>
+      <c r="M60">
+        <v>1879.001321883923</v>
+      </c>
+      <c r="N60">
+        <v>-1855.151321883923</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-1855.151321883923</v>
+      </c>
+      <c r="Q60">
+        <v>-1847.651321883923</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1136371380152699</v>
+      </c>
+      <c r="T60">
+        <v>2.210532585069278</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.01269291283738294</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1560175979664134</v>
+      </c>
+      <c r="C61">
+        <v>-4970.857017845447</v>
+      </c>
+      <c r="D61">
+        <v>5199.639696357944</v>
+      </c>
+      <c r="E61">
+        <v>10384.4090630112</v>
+      </c>
+      <c r="F61">
+        <v>10404.99671420339</v>
+      </c>
+      <c r="G61">
+        <v>234.5</v>
+      </c>
+      <c r="H61">
+        <v>17615</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>31.35</v>
+      </c>
+      <c r="K61">
+        <v>7.5</v>
+      </c>
+      <c r="L61">
+        <v>23.85</v>
+      </c>
+      <c r="M61">
+        <v>1911.397896399163</v>
+      </c>
+      <c r="N61">
+        <v>-1887.547896399163</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-1887.547896399163</v>
+      </c>
+      <c r="Q61">
+        <v>-1880.047896399163</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1161819462595448</v>
+      </c>
+      <c r="T61">
+        <v>2.264448013973407</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.01247777872149503</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1577615979664134</v>
+      </c>
+      <c r="C62">
+        <v>-5208.293818681649</v>
+      </c>
+      <c r="D62">
+        <v>5138.558772033663</v>
+      </c>
+      <c r="E62">
+        <v>10560.76493952313</v>
+      </c>
+      <c r="F62">
+        <v>10581.35259071531</v>
+      </c>
+      <c r="G62">
+        <v>234.5</v>
+      </c>
+      <c r="H62">
+        <v>17615</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>31.35</v>
+      </c>
+      <c r="K62">
+        <v>7.5</v>
+      </c>
+      <c r="L62">
+        <v>23.85</v>
+      </c>
+      <c r="M62">
+        <v>1943.794470914403</v>
+      </c>
+      <c r="N62">
+        <v>-1919.944470914403</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-1919.944470914403</v>
+      </c>
+      <c r="Q62">
+        <v>-1912.444470914403</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1188539949160334</v>
+      </c>
+      <c r="T62">
+        <v>2.321059214322742</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.0122698157428035</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1595055979664134</v>
+      </c>
+      <c r="C63">
+        <v>-5444.31222854623</v>
+      </c>
+      <c r="D63">
+        <v>5078.896238681006</v>
+      </c>
+      <c r="E63">
+        <v>10737.12081603505</v>
+      </c>
+      <c r="F63">
+        <v>10757.70846722724</v>
+      </c>
+      <c r="G63">
+        <v>234.5</v>
+      </c>
+      <c r="H63">
+        <v>17615</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>31.35</v>
+      </c>
+      <c r="K63">
+        <v>7.5</v>
+      </c>
+      <c r="L63">
+        <v>23.85</v>
+      </c>
+      <c r="M63">
+        <v>1976.191045429643</v>
+      </c>
+      <c r="N63">
+        <v>-1952.341045429643</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-1952.341045429643</v>
+      </c>
+      <c r="Q63">
+        <v>-1944.841045429643</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1216630717087522</v>
+      </c>
+      <c r="T63">
+        <v>2.38057355315153</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.01206867122242961</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1612495979664134</v>
+      </c>
+      <c r="C64">
+        <v>-5678.961086144006</v>
+      </c>
+      <c r="D64">
+        <v>5020.603257595151</v>
+      </c>
+      <c r="E64">
+        <v>10913.47669254697</v>
+      </c>
+      <c r="F64">
+        <v>10934.06434373916</v>
+      </c>
+      <c r="G64">
+        <v>234.5</v>
+      </c>
+      <c r="H64">
+        <v>17615</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>31.35</v>
+      </c>
+      <c r="K64">
+        <v>7.5</v>
+      </c>
+      <c r="L64">
+        <v>23.85</v>
+      </c>
+      <c r="M64">
+        <v>2008.587619944883</v>
+      </c>
+      <c r="N64">
+        <v>-1984.737619944883</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-1984.737619944883</v>
+      </c>
+      <c r="Q64">
+        <v>-1977.237619944883</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1246199946484563</v>
+      </c>
+      <c r="T64">
+        <v>2.443220225602887</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.01187401523497111</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1629935979664134</v>
+      </c>
+      <c r="C65">
+        <v>-5912.287013439432</v>
+      </c>
+      <c r="D65">
+        <v>4963.633206811647</v>
+      </c>
+      <c r="E65">
+        <v>11089.83256905889</v>
+      </c>
+      <c r="F65">
+        <v>11110.42022025108</v>
+      </c>
+      <c r="G65">
+        <v>234.5</v>
+      </c>
+      <c r="H65">
+        <v>17615</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>31.35</v>
+      </c>
+      <c r="K65">
+        <v>7.5</v>
+      </c>
+      <c r="L65">
+        <v>23.85</v>
+      </c>
+      <c r="M65">
+        <v>2040.984194460123</v>
+      </c>
+      <c r="N65">
+        <v>-2017.134194460123</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-2017.134194460123</v>
+      </c>
+      <c r="Q65">
+        <v>-2009.634194460123</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1277367512605767</v>
+      </c>
+      <c r="T65">
+        <v>2.509253204673235</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.01168553880266998</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1647375979664134</v>
+      </c>
+      <c r="C66">
+        <v>-6144.334540015001</v>
+      </c>
+      <c r="D66">
+        <v>4907.941556747999</v>
+      </c>
+      <c r="E66">
+        <v>11266.18844557081</v>
+      </c>
+      <c r="F66">
+        <v>11286.776096763</v>
+      </c>
+      <c r="G66">
+        <v>234.5</v>
+      </c>
+      <c r="H66">
+        <v>17615</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>31.35</v>
+      </c>
+      <c r="K66">
+        <v>7.5</v>
+      </c>
+      <c r="L66">
+        <v>23.85</v>
+      </c>
+      <c r="M66">
+        <v>2073.380768975363</v>
+      </c>
+      <c r="N66">
+        <v>-2049.530768975363</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-2049.530768975363</v>
+      </c>
+      <c r="Q66">
+        <v>-2042.030768975363</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1310266610178149</v>
+      </c>
+      <c r="T66">
+        <v>2.578954682580825</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.01150295225887832</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1664815979664134</v>
+      </c>
+      <c r="C67">
+        <v>-6375.146219150826</v>
+      </c>
+      <c r="D67">
+        <v>4853.485754124097</v>
+      </c>
+      <c r="E67">
+        <v>11442.54432208274</v>
+      </c>
+      <c r="F67">
+        <v>11463.13197327492</v>
+      </c>
+      <c r="G67">
+        <v>234.5</v>
+      </c>
+      <c r="H67">
+        <v>17615</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>31.35</v>
+      </c>
+      <c r="K67">
+        <v>7.5</v>
+      </c>
+      <c r="L67">
+        <v>23.85</v>
+      </c>
+      <c r="M67">
+        <v>2105.777343490603</v>
+      </c>
+      <c r="N67">
+        <v>-2081.927343490604</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-2081.927343490604</v>
+      </c>
+      <c r="Q67">
+        <v>-2074.427343490604</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1345045656183239</v>
+      </c>
+      <c r="T67">
+        <v>2.652639102083135</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.01132598376258787</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1682255979664134</v>
+      </c>
+      <c r="C68">
+        <v>-6604.762736261257</v>
+      </c>
+      <c r="D68">
+        <v>4800.225113525587</v>
+      </c>
+      <c r="E68">
+        <v>11618.90019859466</v>
+      </c>
+      <c r="F68">
+        <v>11639.48784978684</v>
+      </c>
+      <c r="G68">
+        <v>234.5</v>
+      </c>
+      <c r="H68">
+        <v>17615</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>31.35</v>
+      </c>
+      <c r="K68">
+        <v>7.5</v>
+      </c>
+      <c r="L68">
+        <v>23.85</v>
+      </c>
+      <c r="M68">
+        <v>2138.173918005843</v>
+      </c>
+      <c r="N68">
+        <v>-2114.323918005844</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-2114.323918005844</v>
+      </c>
+      <c r="Q68">
+        <v>-2106.823918005844</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1381870528423923</v>
+      </c>
+      <c r="T68">
+        <v>2.730657899203226</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.01115437794800311</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1699695979664134</v>
+      </c>
+      <c r="C69">
+        <v>-6833.223010269329</v>
+      </c>
+      <c r="D69">
+        <v>4748.120716029437</v>
+      </c>
+      <c r="E69">
+        <v>11795.25607510658</v>
+      </c>
+      <c r="F69">
+        <v>11815.84372629877</v>
+      </c>
+      <c r="G69">
+        <v>234.5</v>
+      </c>
+      <c r="H69">
+        <v>17615</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>31.35</v>
+      </c>
+      <c r="K69">
+        <v>7.5</v>
+      </c>
+      <c r="L69">
+        <v>23.85</v>
+      </c>
+      <c r="M69">
+        <v>2170.570492521083</v>
+      </c>
+      <c r="N69">
+        <v>-2146.720492521084</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-2146.720492521084</v>
+      </c>
+      <c r="Q69">
+        <v>-2139.220492521084</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1420927211103436</v>
+      </c>
+      <c r="T69">
+        <v>2.813405108269991</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.01098789469504791</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1717135979664134</v>
+      </c>
+      <c r="C70">
+        <v>-7060.564288449824</v>
+      </c>
+      <c r="D70">
+        <v>4697.135314360866</v>
+      </c>
+      <c r="E70">
+        <v>11971.6119516185</v>
+      </c>
+      <c r="F70">
+        <v>11992.19960281069</v>
+      </c>
+      <c r="G70">
+        <v>234.5</v>
+      </c>
+      <c r="H70">
+        <v>17615</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>31.35</v>
+      </c>
+      <c r="K70">
+        <v>7.5</v>
+      </c>
+      <c r="L70">
+        <v>23.85</v>
+      </c>
+      <c r="M70">
+        <v>2202.967067036324</v>
+      </c>
+      <c r="N70">
+        <v>-2179.117067036324</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-2179.117067036324</v>
+      </c>
+      <c r="Q70">
+        <v>-2171.617067036324</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1462424936450418</v>
+      </c>
+      <c r="T70">
+        <v>2.901324017903428</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.01082630800835604</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1734575979664134</v>
+      </c>
+      <c r="C71">
+        <v>-7286.822235226695</v>
+      </c>
+      <c r="D71">
+        <v>4647.233244095916</v>
+      </c>
+      <c r="E71">
+        <v>12147.96782813042</v>
+      </c>
+      <c r="F71">
+        <v>12168.55547932261</v>
+      </c>
+      <c r="G71">
+        <v>234.5</v>
+      </c>
+      <c r="H71">
+        <v>17615</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>31.35</v>
+      </c>
+      <c r="K71">
+        <v>7.5</v>
+      </c>
+      <c r="L71">
+        <v>23.85</v>
+      </c>
+      <c r="M71">
+        <v>2235.363641551564</v>
+      </c>
+      <c r="N71">
+        <v>-2211.513641551564</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-2211.513641551564</v>
+      </c>
+      <c r="Q71">
+        <v>-2204.013641551564</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1506599934400432</v>
+      </c>
+      <c r="T71">
+        <v>2.994915115255152</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.01066940499374214</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1752015979664134</v>
+      </c>
+      <c r="C72">
+        <v>-7512.031015369745</v>
+      </c>
+      <c r="D72">
+        <v>4598.380340464788</v>
+      </c>
+      <c r="E72">
+        <v>12324.32370464235</v>
+      </c>
+      <c r="F72">
+        <v>12344.91135583453</v>
+      </c>
+      <c r="G72">
+        <v>234.5</v>
+      </c>
+      <c r="H72">
+        <v>17615</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>31.35</v>
+      </c>
+      <c r="K72">
+        <v>7.5</v>
+      </c>
+      <c r="L72">
+        <v>23.85</v>
+      </c>
+      <c r="M72">
+        <v>2267.760216066803</v>
+      </c>
+      <c r="N72">
+        <v>-2243.910216066804</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-2243.910216066804</v>
+      </c>
+      <c r="Q72">
+        <v>-2236.410216066804</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1553719932213779</v>
+      </c>
+      <c r="T72">
+        <v>3.09474561909699</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.01051698492240294</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1769455979664133</v>
+      </c>
+      <c r="C73">
+        <v>-7736.223371998352</v>
+      </c>
+      <c r="D73">
+        <v>4550.543860348102</v>
+      </c>
+      <c r="E73">
+        <v>12500.67958115427</v>
+      </c>
+      <c r="F73">
+        <v>12521.26723234645</v>
+      </c>
+      <c r="G73">
+        <v>234.5</v>
+      </c>
+      <c r="H73">
+        <v>17615</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>31.35</v>
+      </c>
+      <c r="K73">
+        <v>7.5</v>
+      </c>
+      <c r="L73">
+        <v>23.85</v>
+      </c>
+      <c r="M73">
+        <v>2300.156790582043</v>
+      </c>
+      <c r="N73">
+        <v>-2276.306790582044</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-2276.306790582044</v>
+      </c>
+      <c r="Q73">
+        <v>-2268.806790582044</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1604089585048737</v>
+      </c>
+      <c r="T73">
+        <v>3.201460985272748</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.0103688583742001</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1786895979664134</v>
+      </c>
+      <c r="C74">
+        <v>-7959.430699766571</v>
+      </c>
+      <c r="D74">
+        <v>4503.692409091805</v>
+      </c>
+      <c r="E74">
+        <v>12677.03545766619</v>
+      </c>
+      <c r="F74">
+        <v>12697.62310885838</v>
+      </c>
+      <c r="G74">
+        <v>234.5</v>
+      </c>
+      <c r="H74">
+        <v>17615</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>31.35</v>
+      </c>
+      <c r="K74">
+        <v>7.5</v>
+      </c>
+      <c r="L74">
+        <v>23.85</v>
+      </c>
+      <c r="M74">
+        <v>2332.553365097283</v>
+      </c>
+      <c r="N74">
+        <v>-2308.703365097283</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-2308.703365097283</v>
+      </c>
+      <c r="Q74">
+        <v>-2301.203365097283</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1658057070229049</v>
+      </c>
+      <c r="T74">
+        <v>3.315798877603918</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.01022484645233623</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1804335979664134</v>
+      </c>
+      <c r="C75">
+        <v>-8181.683113573275</v>
+      </c>
+      <c r="D75">
+        <v>4457.795871797021</v>
+      </c>
+      <c r="E75">
+        <v>12853.39133417811</v>
+      </c>
+      <c r="F75">
+        <v>12873.9789853703</v>
+      </c>
+      <c r="G75">
+        <v>234.5</v>
+      </c>
+      <c r="H75">
+        <v>17615</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>31.35</v>
+      </c>
+      <c r="K75">
+        <v>7.5</v>
+      </c>
+      <c r="L75">
+        <v>23.85</v>
+      </c>
+      <c r="M75">
+        <v>2364.949939612523</v>
+      </c>
+      <c r="N75">
+        <v>-2341.099939612523</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-2341.099939612523</v>
+      </c>
+      <c r="Q75">
+        <v>-2333.599939612523</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1716022146904199</v>
+      </c>
+      <c r="T75">
+        <v>3.438606243441099</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.01008478006257818</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1821775979664134</v>
+      </c>
+      <c r="C76">
+        <v>-8403.009513113433</v>
+      </c>
+      <c r="D76">
+        <v>4412.825348768787</v>
+      </c>
+      <c r="E76">
+        <v>13029.74721069003</v>
+      </c>
+      <c r="F76">
+        <v>13050.33486188222</v>
+      </c>
+      <c r="G76">
+        <v>234.5</v>
+      </c>
+      <c r="H76">
+        <v>17615</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>31.35</v>
+      </c>
+      <c r="K76">
+        <v>7.5</v>
+      </c>
+      <c r="L76">
+        <v>23.85</v>
+      </c>
+      <c r="M76">
+        <v>2397.346514127764</v>
+      </c>
+      <c r="N76">
+        <v>-2373.496514127764</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-2373.496514127764</v>
+      </c>
+      <c r="Q76">
+        <v>-2365.996514127764</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1778446075631284</v>
+      </c>
+      <c r="T76">
+        <v>3.570860329727296</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.009948499250921783</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1839215979664134</v>
+      </c>
+      <c r="C77">
+        <v>-8623.437643561163</v>
+      </c>
+      <c r="D77">
+        <v>4368.753094832978</v>
+      </c>
+      <c r="E77">
+        <v>13206.10308720195</v>
+      </c>
+      <c r="F77">
+        <v>13226.69073839414</v>
+      </c>
+      <c r="G77">
+        <v>234.5</v>
+      </c>
+      <c r="H77">
+        <v>17615</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>31.35</v>
+      </c>
+      <c r="K77">
+        <v>7.5</v>
+      </c>
+      <c r="L77">
+        <v>23.85</v>
+      </c>
+      <c r="M77">
+        <v>2429.743088643004</v>
+      </c>
+      <c r="N77">
+        <v>-2405.893088643004</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-2405.893088643004</v>
+      </c>
+      <c r="Q77">
+        <v>-2398.393088643004</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1845863918656535</v>
+      </c>
+      <c r="T77">
+        <v>3.713694742916388</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.00981585259424278</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1856655979664134</v>
+      </c>
+      <c r="C78">
+        <v>-8842.994152652462</v>
+      </c>
+      <c r="D78">
+        <v>4325.552462253601</v>
+      </c>
+      <c r="E78">
+        <v>13382.45896371388</v>
+      </c>
+      <c r="F78">
+        <v>13403.04661490606</v>
+      </c>
+      <c r="G78">
+        <v>234.5</v>
+      </c>
+      <c r="H78">
+        <v>17615</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>31.35</v>
+      </c>
+      <c r="K78">
+        <v>7.5</v>
+      </c>
+      <c r="L78">
+        <v>23.85</v>
+      </c>
+      <c r="M78">
+        <v>2462.139663158244</v>
+      </c>
+      <c r="N78">
+        <v>-2438.289663158244</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-2438.289663158244</v>
+      </c>
+      <c r="Q78">
+        <v>-2430.789663158244</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1918899915267224</v>
+      </c>
+      <c r="T78">
+        <v>3.868432023871238</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.009686696639055414</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1874095979664134</v>
+      </c>
+      <c r="C79">
+        <v>-9061.704644414218</v>
+      </c>
+      <c r="D79">
+        <v>4283.197847003768</v>
+      </c>
+      <c r="E79">
+        <v>13558.8148402258</v>
+      </c>
+      <c r="F79">
+        <v>13579.40249141799</v>
+      </c>
+      <c r="G79">
+        <v>234.5</v>
+      </c>
+      <c r="H79">
+        <v>17615</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>31.35</v>
+      </c>
+      <c r="K79">
+        <v>7.5</v>
+      </c>
+      <c r="L79">
+        <v>23.85</v>
+      </c>
+      <c r="M79">
+        <v>2494.536237673484</v>
+      </c>
+      <c r="N79">
+        <v>-2470.686237673484</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-2470.686237673484</v>
+      </c>
+      <c r="Q79">
+        <v>-2463.186237673484</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.199828686810493</v>
+      </c>
+      <c r="T79">
+        <v>4.036624720561291</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.009560895384002732</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1891535979664134</v>
+      </c>
+      <c r="C80">
+        <v>-9279.593729767308</v>
+      </c>
+      <c r="D80">
+        <v>4241.664638162599</v>
+      </c>
+      <c r="E80">
+        <v>13735.17071673772</v>
+      </c>
+      <c r="F80">
+        <v>13755.75836792991</v>
+      </c>
+      <c r="G80">
+        <v>234.5</v>
+      </c>
+      <c r="H80">
+        <v>17615</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>31.35</v>
+      </c>
+      <c r="K80">
+        <v>7.5</v>
+      </c>
+      <c r="L80">
+        <v>23.85</v>
+      </c>
+      <c r="M80">
+        <v>2526.932812188724</v>
+      </c>
+      <c r="N80">
+        <v>-2503.082812188724</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-2503.082812188724</v>
+      </c>
+      <c r="Q80">
+        <v>-2495.582812188724</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2084890816655154</v>
+      </c>
+      <c r="T80">
+        <v>4.220107662404986</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.009438319802156481</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1908975979664134</v>
+      </c>
+      <c r="C81">
+        <v>-9496.685074213798</v>
+      </c>
+      <c r="D81">
+        <v>4200.929170228031</v>
+      </c>
+      <c r="E81">
+        <v>13911.52659324964</v>
+      </c>
+      <c r="F81">
+        <v>13932.11424444183</v>
+      </c>
+      <c r="G81">
+        <v>234.5</v>
+      </c>
+      <c r="H81">
+        <v>17615</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>31.35</v>
+      </c>
+      <c r="K81">
+        <v>7.5</v>
+      </c>
+      <c r="L81">
+        <v>23.85</v>
+      </c>
+      <c r="M81">
+        <v>2559.329386703964</v>
+      </c>
+      <c r="N81">
+        <v>-2535.479386703964</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-2535.479386703964</v>
+      </c>
+      <c r="Q81">
+        <v>-2527.979386703964</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2179742760305399</v>
+      </c>
+      <c r="T81">
+        <v>4.421065170138558</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.009318847399597541</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1926415979664134</v>
+      </c>
+      <c r="C82">
+        <v>-9713.001442802484</v>
+      </c>
+      <c r="D82">
+        <v>4160.968678151268</v>
+      </c>
+      <c r="E82">
+        <v>14087.88246976157</v>
+      </c>
+      <c r="F82">
+        <v>14108.47012095375</v>
+      </c>
+      <c r="G82">
+        <v>234.5</v>
+      </c>
+      <c r="H82">
+        <v>17615</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>31.35</v>
+      </c>
+      <c r="K82">
+        <v>7.5</v>
+      </c>
+      <c r="L82">
+        <v>23.85</v>
+      </c>
+      <c r="M82">
+        <v>2591.725961219204</v>
+      </c>
+      <c r="N82">
+        <v>-2567.875961219204</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-2567.875961219204</v>
+      </c>
+      <c r="Q82">
+        <v>-2560.375961219204</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2284079898320669</v>
+      </c>
+      <c r="T82">
+        <v>4.642118428645485</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.009202361807102655</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1943855979664134</v>
+      </c>
+      <c r="C83">
+        <v>-9928.564742552233</v>
+      </c>
+      <c r="D83">
+        <v>4121.76125491344</v>
+      </c>
+      <c r="E83">
+        <v>14264.23834627349</v>
+      </c>
+      <c r="F83">
+        <v>14284.82599746567</v>
+      </c>
+      <c r="G83">
+        <v>234.5</v>
+      </c>
+      <c r="H83">
+        <v>17615</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>31.35</v>
+      </c>
+      <c r="K83">
+        <v>7.5</v>
+      </c>
+      <c r="L83">
+        <v>23.85</v>
+      </c>
+      <c r="M83">
+        <v>2624.122535734444</v>
+      </c>
+      <c r="N83">
+        <v>-2600.272535734444</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-2600.272535734444</v>
+      </c>
+      <c r="Q83">
+        <v>-2592.772535734444</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2399399892969125</v>
+      </c>
+      <c r="T83">
+        <v>4.886440451205774</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.009088752402076627</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1961295979664134</v>
+      </c>
+      <c r="C84">
+        <v>-10143.39606249931</v>
+      </c>
+      <c r="D84">
+        <v>4083.285811478287</v>
+      </c>
+      <c r="E84">
+        <v>14440.59422278541</v>
+      </c>
+      <c r="F84">
+        <v>14461.1818739776</v>
+      </c>
+      <c r="G84">
+        <v>234.5</v>
+      </c>
+      <c r="H84">
+        <v>17615</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>31.35</v>
+      </c>
+      <c r="K84">
+        <v>7.5</v>
+      </c>
+      <c r="L84">
+        <v>23.85</v>
+      </c>
+      <c r="M84">
+        <v>2656.519110249684</v>
+      </c>
+      <c r="N84">
+        <v>-2632.669110249684</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-2632.669110249684</v>
+      </c>
+      <c r="Q84">
+        <v>-2625.169110249684</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2527533220356299</v>
+      </c>
+      <c r="T84">
+        <v>5.157909365161651</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.008977913958148842</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1978735979664134</v>
+      </c>
+      <c r="C85">
+        <v>-10357.51571152241</v>
+      </c>
+      <c r="D85">
+        <v>4045.522038967109</v>
+      </c>
+      <c r="E85">
+        <v>14616.95009929733</v>
+      </c>
+      <c r="F85">
+        <v>14637.53775048952</v>
+      </c>
+      <c r="G85">
+        <v>234.5</v>
+      </c>
+      <c r="H85">
+        <v>17615</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>31.35</v>
+      </c>
+      <c r="K85">
+        <v>7.5</v>
+      </c>
+      <c r="L85">
+        <v>23.85</v>
+      </c>
+      <c r="M85">
+        <v>2688.915684764925</v>
+      </c>
+      <c r="N85">
+        <v>-2665.065684764925</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-2665.065684764925</v>
+      </c>
+      <c r="Q85">
+        <v>-2657.565684764925</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2670741056847846</v>
+      </c>
+      <c r="T85">
+        <v>5.461315798406455</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.008869746320098848</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1996175979664134</v>
+      </c>
+      <c r="C86">
+        <v>-10570.94325408806</v>
+      </c>
+      <c r="D86">
+        <v>4008.450372913381</v>
+      </c>
+      <c r="E86">
+        <v>14793.30597580925</v>
+      </c>
+      <c r="F86">
+        <v>14813.89362700144</v>
+      </c>
+      <c r="G86">
+        <v>234.5</v>
+      </c>
+      <c r="H86">
+        <v>17615</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>31.35</v>
+      </c>
+      <c r="K86">
+        <v>7.5</v>
+      </c>
+      <c r="L86">
+        <v>23.85</v>
+      </c>
+      <c r="M86">
+        <v>2721.312259280164</v>
+      </c>
+      <c r="N86">
+        <v>-2697.462259280164</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-2697.462259280164</v>
+      </c>
+      <c r="Q86">
+        <v>-2689.962259280164</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2831849872900835</v>
+      </c>
+      <c r="T86">
+        <v>5.802648035806855</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.008764154102002486</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2013615979664134</v>
+      </c>
+      <c r="C87">
+        <v>-10783.69754404848</v>
+      </c>
+      <c r="D87">
+        <v>3972.051959464881</v>
+      </c>
+      <c r="E87">
+        <v>14969.66185232117</v>
+      </c>
+      <c r="F87">
+        <v>14990.24950351336</v>
+      </c>
+      <c r="G87">
+        <v>234.5</v>
+      </c>
+      <c r="H87">
+        <v>17615</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>31.35</v>
+      </c>
+      <c r="K87">
+        <v>7.5</v>
+      </c>
+      <c r="L87">
+        <v>23.85</v>
+      </c>
+      <c r="M87">
+        <v>2753.708833795404</v>
+      </c>
+      <c r="N87">
+        <v>-2729.858833795404</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-2729.858833795404</v>
+      </c>
+      <c r="Q87">
+        <v>-2722.358833795404</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3014439864427558</v>
+      </c>
+      <c r="T87">
+        <v>6.18949123819398</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.008661046406684858</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2031055979664134</v>
+      </c>
+      <c r="C88">
+        <v>-10995.79675661464</v>
+      </c>
+      <c r="D88">
+        <v>3936.308623410639</v>
+      </c>
+      <c r="E88">
+        <v>15146.0177288331</v>
+      </c>
+      <c r="F88">
+        <v>15166.60538002528</v>
+      </c>
+      <c r="G88">
+        <v>234.5</v>
+      </c>
+      <c r="H88">
+        <v>17615</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>31.35</v>
+      </c>
+      <c r="K88">
+        <v>7.5</v>
+      </c>
+      <c r="L88">
+        <v>23.85</v>
+      </c>
+      <c r="M88">
+        <v>2786.105408310645</v>
+      </c>
+      <c r="N88">
+        <v>-2762.255408310645</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-2762.255408310645</v>
+      </c>
+      <c r="Q88">
+        <v>-2754.755408310645</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3223114140458098</v>
+      </c>
+      <c r="T88">
+        <v>6.631597755207835</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.00856033656474664</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2048495979664134</v>
+      </c>
+      <c r="C89">
+        <v>-11207.25841861842</v>
+      </c>
+      <c r="D89">
+        <v>3901.202837918781</v>
+      </c>
+      <c r="E89">
+        <v>15322.37360534502</v>
+      </c>
+      <c r="F89">
+        <v>15342.9612565372</v>
+      </c>
+      <c r="G89">
+        <v>234.5</v>
+      </c>
+      <c r="H89">
+        <v>17615</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>31.35</v>
+      </c>
+      <c r="K89">
+        <v>7.5</v>
+      </c>
+      <c r="L89">
+        <v>23.85</v>
+      </c>
+      <c r="M89">
+        <v>2818.501982825885</v>
+      </c>
+      <c r="N89">
+        <v>-2794.651982825885</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-2794.651982825885</v>
+      </c>
+      <c r="Q89">
+        <v>-2787.151982825885</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3463892151262567</v>
+      </c>
+      <c r="T89">
+        <v>7.141720659454592</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.008461941891588554</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2065935979664134</v>
+      </c>
+      <c r="C90">
+        <v>-11418.09943716972</v>
+      </c>
+      <c r="D90">
+        <v>3866.71769587941</v>
+      </c>
+      <c r="E90">
+        <v>15498.72948185694</v>
+      </c>
+      <c r="F90">
+        <v>15519.31713304913</v>
+      </c>
+      <c r="G90">
+        <v>234.5</v>
+      </c>
+      <c r="H90">
+        <v>17615</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>31.35</v>
+      </c>
+      <c r="K90">
+        <v>7.5</v>
+      </c>
+      <c r="L90">
+        <v>23.85</v>
+      </c>
+      <c r="M90">
+        <v>2850.898557341125</v>
+      </c>
+      <c r="N90">
+        <v>-2827.048557341125</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-2827.048557341125</v>
+      </c>
+      <c r="Q90">
+        <v>-2819.548557341125</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3744799830534448</v>
+      </c>
+      <c r="T90">
+        <v>7.736864047742475</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.008365783461002363</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2083375979664134</v>
+      </c>
+      <c r="C91">
+        <v>-11628.33612680696</v>
+      </c>
+      <c r="D91">
+        <v>3832.836882754084</v>
+      </c>
+      <c r="E91">
+        <v>15675.08535836886</v>
+      </c>
+      <c r="F91">
+        <v>15695.67300956105</v>
+      </c>
+      <c r="G91">
+        <v>234.5</v>
+      </c>
+      <c r="H91">
+        <v>17615</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>31.35</v>
+      </c>
+      <c r="K91">
+        <v>7.5</v>
+      </c>
+      <c r="L91">
+        <v>23.85</v>
+      </c>
+      <c r="M91">
+        <v>2883.295131856365</v>
+      </c>
+      <c r="N91">
+        <v>-2859.445131856365</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-2859.445131856365</v>
+      </c>
+      <c r="Q91">
+        <v>-2851.945131856365</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4076781633310307</v>
+      </c>
+      <c r="T91">
+        <v>8.440215324809973</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.008271785894024775</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2100815979664134</v>
+      </c>
+      <c r="C92">
+        <v>-11837.9842352327</v>
+      </c>
+      <c r="D92">
+        <v>3799.544650840274</v>
+      </c>
+      <c r="E92">
+        <v>15851.44123488078</v>
+      </c>
+      <c r="F92">
+        <v>15872.02888607297</v>
+      </c>
+      <c r="G92">
+        <v>234.5</v>
+      </c>
+      <c r="H92">
+        <v>17615</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>31.35</v>
+      </c>
+      <c r="K92">
+        <v>7.5</v>
+      </c>
+      <c r="L92">
+        <v>23.85</v>
+      </c>
+      <c r="M92">
+        <v>2915.691706371605</v>
+      </c>
+      <c r="N92">
+        <v>-2891.841706371605</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-2891.841706371605</v>
+      </c>
+      <c r="Q92">
+        <v>-2884.341706371605</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4475159796641338</v>
+      </c>
+      <c r="T92">
+        <v>9.284236857290971</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.008179877161868965</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2118255979664134</v>
+      </c>
+      <c r="C93">
+        <v>-12047.05896771938</v>
+      </c>
+      <c r="D93">
+        <v>3766.825794865512</v>
+      </c>
+      <c r="E93">
+        <v>16027.79711139271</v>
+      </c>
+      <c r="F93">
+        <v>16048.38476258489</v>
+      </c>
+      <c r="G93">
+        <v>234.5</v>
+      </c>
+      <c r="H93">
+        <v>17615</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>31.35</v>
+      </c>
+      <c r="K93">
+        <v>7.5</v>
+      </c>
+      <c r="L93">
+        <v>23.85</v>
+      </c>
+      <c r="M93">
+        <v>2948.088280886845</v>
+      </c>
+      <c r="N93">
+        <v>-2924.238280886845</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-2924.238280886845</v>
+      </c>
+      <c r="Q93">
+        <v>-2916.738280886845</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4962066440712599</v>
+      </c>
+      <c r="T93">
+        <v>10.3158187303233</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.008089988401848491</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2135695979664134</v>
+      </c>
+      <c r="C94">
+        <v>-12255.57501026504</v>
+      </c>
+      <c r="D94">
+        <v>3734.665628831771</v>
+      </c>
+      <c r="E94">
+        <v>16204.15298790463</v>
+      </c>
+      <c r="F94">
+        <v>16224.74063909681</v>
+      </c>
+      <c r="G94">
+        <v>234.5</v>
+      </c>
+      <c r="H94">
+        <v>17615</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>31.35</v>
+      </c>
+      <c r="K94">
+        <v>7.5</v>
+      </c>
+      <c r="L94">
+        <v>23.85</v>
+      </c>
+      <c r="M94">
+        <v>2980.484855402085</v>
+      </c>
+      <c r="N94">
+        <v>-2956.634855402085</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-2956.634855402085</v>
+      </c>
+      <c r="Q94">
+        <v>-2949.134855402085</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5570699745801675</v>
+      </c>
+      <c r="T94">
+        <v>11.60529607161372</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.008002053745306603</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2153135979664134</v>
+      </c>
+      <c r="C95">
+        <v>-12463.54655157276</v>
+      </c>
+      <c r="D95">
+        <v>3703.049964035972</v>
+      </c>
+      <c r="E95">
+        <v>16380.50886441655</v>
+      </c>
+      <c r="F95">
+        <v>16401.09651560874</v>
+      </c>
+      <c r="G95">
+        <v>234.5</v>
+      </c>
+      <c r="H95">
+        <v>17615</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>31.35</v>
+      </c>
+      <c r="K95">
+        <v>7.5</v>
+      </c>
+      <c r="L95">
+        <v>23.85</v>
+      </c>
+      <c r="M95">
+        <v>3012.881429917325</v>
+      </c>
+      <c r="N95">
+        <v>-2989.031429917325</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-2989.031429917325</v>
+      </c>
+      <c r="Q95">
+        <v>-2981.531429917325</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.63532282809162</v>
+      </c>
+      <c r="T95">
+        <v>13.26319551041568</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.007916010156647446</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2170575979664134</v>
+      </c>
+      <c r="C96">
+        <v>-12670.98730392313</v>
+      </c>
+      <c r="D96">
+        <v>3671.965088197532</v>
+      </c>
+      <c r="E96">
+        <v>16556.86474092847</v>
+      </c>
+      <c r="F96">
+        <v>16577.45239212066</v>
+      </c>
+      <c r="G96">
+        <v>234.5</v>
+      </c>
+      <c r="H96">
+        <v>17615</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>31.35</v>
+      </c>
+      <c r="K96">
+        <v>7.5</v>
+      </c>
+      <c r="L96">
+        <v>23.85</v>
+      </c>
+      <c r="M96">
+        <v>3045.278004432565</v>
+      </c>
+      <c r="N96">
+        <v>-3021.428004432566</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-3021.428004432566</v>
+      </c>
+      <c r="Q96">
+        <v>-3013.928004432566</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7396599661068902</v>
+      </c>
+      <c r="T96">
+        <v>15.47372809548496</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.007831797282640496</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2188015979664134</v>
+      </c>
+      <c r="C97">
+        <v>-12877.91052300416</v>
+      </c>
+      <c r="D97">
+        <v>3641.397745628416</v>
+      </c>
+      <c r="E97">
+        <v>16733.22061744039</v>
+      </c>
+      <c r="F97">
+        <v>16753.80826863258</v>
+      </c>
+      <c r="G97">
+        <v>234.5</v>
+      </c>
+      <c r="H97">
+        <v>17615</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>31.35</v>
+      </c>
+      <c r="K97">
+        <v>7.5</v>
+      </c>
+      <c r="L97">
+        <v>23.85</v>
+      </c>
+      <c r="M97">
+        <v>3077.674578947805</v>
+      </c>
+      <c r="N97">
+        <v>-3053.824578947805</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-3053.824578947805</v>
+      </c>
+      <c r="Q97">
+        <v>-3046.324578947805</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8857319593282688</v>
+      </c>
+      <c r="T97">
+        <v>18.56847371458197</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.007749357311244265</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2205455979664134</v>
+      </c>
+      <c r="C98">
+        <v>-13084.32902675902</v>
+      </c>
+      <c r="D98">
+        <v>3611.335118385478</v>
+      </c>
+      <c r="E98">
+        <v>16909.57649395231</v>
+      </c>
+      <c r="F98">
+        <v>16930.1641451445</v>
+      </c>
+      <c r="G98">
+        <v>234.5</v>
+      </c>
+      <c r="H98">
+        <v>17615</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>31.35</v>
+      </c>
+      <c r="K98">
+        <v>7.5</v>
+      </c>
+      <c r="L98">
+        <v>23.85</v>
+      </c>
+      <c r="M98">
+        <v>3110.071153463045</v>
+      </c>
+      <c r="N98">
+        <v>-3086.221153463045</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-3086.221153463045</v>
+      </c>
+      <c r="Q98">
+        <v>-3078.721153463045</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.104839949160334</v>
+      </c>
+      <c r="T98">
+        <v>23.21059214322741</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.007668634839252175</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2222895979664134</v>
+      </c>
+      <c r="C99">
+        <v>-13290.25521330767</v>
+      </c>
+      <c r="D99">
+        <v>3581.764808348753</v>
+      </c>
+      <c r="E99">
+        <v>17085.93237046423</v>
+      </c>
+      <c r="F99">
+        <v>17106.52002165642</v>
+      </c>
+      <c r="G99">
+        <v>234.5</v>
+      </c>
+      <c r="H99">
+        <v>17615</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>31.35</v>
+      </c>
+      <c r="K99">
+        <v>7.5</v>
+      </c>
+      <c r="L99">
+        <v>23.85</v>
+      </c>
+      <c r="M99">
+        <v>3142.467727978285</v>
+      </c>
+      <c r="N99">
+        <v>-3118.617727978285</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-3118.617727978285</v>
+      </c>
+      <c r="Q99">
+        <v>-3111.117727978285</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.470019932213778</v>
+      </c>
+      <c r="T99">
+        <v>30.94745619096987</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.007589576748125881</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2240335979664134</v>
+      </c>
+      <c r="C100">
+        <v>-13495.70107799525</v>
+      </c>
+      <c r="D100">
+        <v>3552.674820173092</v>
+      </c>
+      <c r="E100">
+        <v>17262.28824697616</v>
+      </c>
+      <c r="F100">
+        <v>17282.87589816835</v>
+      </c>
+      <c r="G100">
+        <v>234.5</v>
+      </c>
+      <c r="H100">
+        <v>17615</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>31.35</v>
+      </c>
+      <c r="K100">
+        <v>7.5</v>
+      </c>
+      <c r="L100">
+        <v>23.85</v>
+      </c>
+      <c r="M100">
+        <v>3174.864302493525</v>
+      </c>
+      <c r="N100">
+        <v>-3151.014302493525</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-3151.014302493525</v>
+      </c>
+      <c r="Q100">
+        <v>-3143.514302493525</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.200379898320667</v>
+      </c>
+      <c r="T100">
+        <v>46.42118428645481</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.007512132087430734</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2257775979664134</v>
+      </c>
+      <c r="C101">
+        <v>-13700.6782296164</v>
+      </c>
+      <c r="D101">
+        <v>3524.053545063862</v>
+      </c>
+      <c r="E101">
+        <v>17438.64412348808</v>
+      </c>
+      <c r="F101">
+        <v>17459.23177468027</v>
+      </c>
+      <c r="G101">
+        <v>234.5</v>
+      </c>
+      <c r="H101">
+        <v>17615</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>31.35</v>
+      </c>
+      <c r="K101">
+        <v>7.5</v>
+      </c>
+      <c r="L101">
+        <v>23.85</v>
+      </c>
+      <c r="M101">
+        <v>3207.260877008765</v>
+      </c>
+      <c r="N101">
+        <v>-3183.410877008765</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-3183.410877008765</v>
+      </c>
+      <c r="Q101">
+        <v>-3175.910877008765</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.391459796641334</v>
+      </c>
+      <c r="T101">
+        <v>92.84236857290962</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.007436251965335483</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
